--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_10_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_10_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1357269.19365966</v>
+        <v>1356659.433602607</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>230361.9932825534</v>
+        <v>230361.9932825536</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>245.5365136137426</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>282.2484286509065</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -755,7 +755,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H3" t="n">
-        <v>41.31829566194965</v>
+        <v>41.31829566194966</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>62.82088317610075</v>
       </c>
       <c r="T3" t="n">
-        <v>128.8768572327043</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U3" t="n">
         <v>174.5731815300314</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>66.76936200978251</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>149.5423106347999</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -901,7 +901,7 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>416.7282556016521</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -910,10 +910,10 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>221.2338204404272</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>56.57375496010799</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1119,7 +1119,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>109.9334164561381</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>359.1888706459504</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
+        <v>31.5506869772999</v>
+      </c>
+      <c r="E8" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="E8" t="n">
-        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>77.33732603887998</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>95.85143167654475</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -1341,25 +1341,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>20.75324131381411</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800586</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869772998</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932877</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1387,7 +1387,7 @@
         <v>397.2450776617479</v>
       </c>
       <c r="H11" t="n">
-        <v>284.8176194334632</v>
+        <v>284.8176194334631</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>79.65301062268192</v>
+        <v>79.65301062268223</v>
       </c>
       <c r="T11" t="n">
         <v>217.2590655368476</v>
@@ -1435,10 +1435,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864823</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633437</v>
+        <v>404.203262463343</v>
       </c>
     </row>
     <row r="12">
@@ -1542,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>113.2320398340926</v>
+        <v>163.8731123569568</v>
       </c>
       <c r="H13" t="n">
-        <v>137.9496946538981</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>85.90132644576698</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>18.4046626769032</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>156.56410959728</v>
       </c>
       <c r="T13" t="n">
-        <v>243.1546752508501</v>
+        <v>165.4631461349828</v>
       </c>
       <c r="U13" t="n">
         <v>275.645275292109</v>
@@ -1590,7 +1590,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1609,7 +1609,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884113</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>79.65301062268223</v>
+        <v>79.65301062268192</v>
       </c>
       <c r="T14" t="n">
         <v>217.2590655368476</v>
@@ -1767,7 +1767,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1776,16 +1776,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>25.82886500703485</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.8731123569568</v>
       </c>
       <c r="H16" t="n">
-        <v>137.9496946538981</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>85.90132644576698</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>18.4046626769032</v>
+        <v>18.40466267690321</v>
       </c>
       <c r="S16" t="n">
-        <v>156.56410959728</v>
+        <v>60.4679178045097</v>
       </c>
       <c r="T16" t="n">
         <v>243.1546752508501</v>
@@ -1900,7 +1900,7 @@
         <v>217.2590655368476</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6189776240564</v>
+        <v>256.6189776240555</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2004,7 +2004,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2016,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.8731123569568</v>
+        <v>86.18158324108921</v>
       </c>
       <c r="H19" t="n">
-        <v>137.9496946538981</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>85.90132644576698</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>18.4046626769032</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>156.56410959728</v>
@@ -2061,7 +2061,7 @@
         <v>275.645275292109</v>
       </c>
       <c r="V19" t="n">
-        <v>134.9748345574458</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2134,10 +2134,10 @@
         <v>79.65301062268192</v>
       </c>
       <c r="T20" t="n">
-        <v>217.259065536848</v>
+        <v>217.2590655368471</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6189776240556</v>
+        <v>256.6189776240564</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2256,10 +2256,10 @@
         <v>163.8731123569568</v>
       </c>
       <c r="H22" t="n">
-        <v>137.9496946538981</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>85.90132644576698</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>18.4046626769032</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>61.76237068387758</v>
+        <v>78.87258048141294</v>
       </c>
       <c r="T22" t="n">
         <v>243.1546752508501</v>
@@ -2307,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884113</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
         <v>431.5506869772999</v>
@@ -2371,10 +2371,10 @@
         <v>79.65301062268192</v>
       </c>
       <c r="T23" t="n">
-        <v>217.2590655368476</v>
+        <v>217.2590655368471</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6189776240556</v>
+        <v>256.6189776240564</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -2490,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>86.1815832410892</v>
       </c>
       <c r="H25" t="n">
-        <v>137.9496946538981</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>85.90132644576698</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>18.4046626769032</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>156.56410959728</v>
@@ -2535,7 +2535,7 @@
         <v>275.645275292109</v>
       </c>
       <c r="V25" t="n">
-        <v>128.0118525127953</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800586</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772998</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932877</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
         <v>423.5887552948843</v>
@@ -2572,7 +2572,7 @@
         <v>397.2450776617479</v>
       </c>
       <c r="H26" t="n">
-        <v>284.8176194334631</v>
+        <v>284.8176194334632</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>79.65301062268185</v>
+        <v>79.65301062268192</v>
       </c>
       <c r="T26" t="n">
         <v>217.2590655368476</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6189776240564</v>
+        <v>256.6189776240556</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655126</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864823</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.203262463343</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2730,7 +2730,7 @@
         <v>163.8731123569568</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>137.9496946538981</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>78.87258048141338</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>243.1546752508501</v>
+        <v>184.0775610783649</v>
       </c>
       <c r="U28" t="n">
         <v>275.645275292109</v>
@@ -2955,22 +2955,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>157.1616781298165</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.8731123569568</v>
+        <v>86.18158324108921</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>85.90132644576698</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>18.4046626769032</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>156.56410959728</v>
@@ -3091,7 +3091,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.8069000430764</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
@@ -3195,19 +3195,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>23.05319431719602</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>163.8731123569568</v>
       </c>
       <c r="H34" t="n">
-        <v>137.9496946538981</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>85.90132644576698</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>18.4046626769032</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>156.56410959728</v>
+        <v>78.87258048141294</v>
       </c>
       <c r="T34" t="n">
         <v>243.1546752508501</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>79.65301062268192</v>
+        <v>79.65301062268223</v>
       </c>
       <c r="T35" t="n">
         <v>217.2590655368476</v>
@@ -3441,10 +3441,10 @@
         <v>163.8731123569568</v>
       </c>
       <c r="H37" t="n">
-        <v>137.9496946538981</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>85.90132644576698</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>18.4046626769032</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>156.56410959728</v>
       </c>
       <c r="T37" t="n">
-        <v>243.1546752508501</v>
+        <v>165.4631461349828</v>
       </c>
       <c r="U37" t="n">
-        <v>225.0042027692449</v>
+        <v>275.645275292109</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3508,7 +3508,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869773004</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
@@ -3520,7 +3520,7 @@
         <v>397.2450776617479</v>
       </c>
       <c r="H38" t="n">
-        <v>284.8176194334632</v>
+        <v>284.8176194334636</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>163.8731123569568</v>
       </c>
       <c r="H40" t="n">
-        <v>137.9496946538981</v>
+        <v>120.4930974866393</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>18.4046626769032</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>156.56410959728</v>
@@ -3717,10 +3717,10 @@
         <v>243.1546752508501</v>
       </c>
       <c r="U40" t="n">
-        <v>41.59938884544069</v>
+        <v>275.645275292109</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3742,19 +3742,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948842</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.245077661748</v>
+        <v>397.2450776617479</v>
       </c>
       <c r="H41" t="n">
         <v>284.8176194334632</v>
@@ -3793,22 +3793,22 @@
         <v>79.65301062268192</v>
       </c>
       <c r="T41" t="n">
-        <v>217.2590655368477</v>
+        <v>217.2590655368476</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6189776240557</v>
+        <v>256.6189776240556</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>130.8233183593119</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3906,7 +3906,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>18.4046626769032</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>156.56410959728</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.1546752508501</v>
@@ -3963,7 +3963,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>176.9523743850234</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3991,7 +3991,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.2450776617479</v>
+        <v>397.2450776617484</v>
       </c>
       <c r="H44" t="n">
         <v>284.8176194334632</v>
@@ -4030,10 +4030,10 @@
         <v>79.65301062268192</v>
       </c>
       <c r="T44" t="n">
-        <v>217.259065536848</v>
+        <v>217.2590655368476</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6189776240555</v>
+        <v>256.6189776240556</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4155,7 +4155,7 @@
         <v>137.9496946538981</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>18.4046626769032</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>156.56410959728</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>243.1546752508501</v>
+        <v>98.17623463259784</v>
       </c>
       <c r="U46" t="n">
         <v>275.645275292109</v>
@@ -4200,7 +4200,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>8.891950673253261</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>367.3910961563706</v>
+        <v>1208.492610164787</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>779.9109359020549</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>748.0415551169035</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>319.4598808541718</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4333,22 +4333,22 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="M2" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="N2" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="O2" t="n">
+        <v>687.9235674375537</v>
+      </c>
+      <c r="P2" t="n">
         <v>1107.976466382457</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1528.02936532736</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1528.02936532736</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1528.02936532736</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1528.02936532736</v>
       </c>
       <c r="Q2" t="n">
         <v>1528.02936532736</v>
@@ -4357,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1217.893900270473</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V2" t="n">
-        <v>1217.893900270473</v>
+        <v>1250.914606198081</v>
       </c>
       <c r="W2" t="n">
-        <v>1217.07884972191</v>
+        <v>1250.099555649518</v>
       </c>
       <c r="X2" t="n">
-        <v>797.936386301221</v>
+        <v>1234.997496269233</v>
       </c>
       <c r="Y2" t="n">
-        <v>793.6906666412784</v>
+        <v>1230.75177660929</v>
       </c>
     </row>
     <row r="3">
@@ -4400,37 +4400,37 @@
         <v>161.064410519212</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539589</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>437.0247332457074</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>857.0776321906106</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>857.0776321906106</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>1277.130531135514</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>1277.130531135514</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>1277.130531135514</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
         <v>1697.183430080417</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>626.6345971163577</v>
+        <v>753.632693507099</v>
       </c>
       <c r="C4" t="n">
-        <v>454.0728855995826</v>
+        <v>686.1888934972177</v>
       </c>
       <c r="D4" t="n">
-        <v>288.1948928011053</v>
+        <v>520.3109006987404</v>
       </c>
       <c r="E4" t="n">
-        <v>288.1948928011053</v>
+        <v>350.5528969494776</v>
       </c>
       <c r="F4" t="n">
-        <v>288.1948928011053</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4494,13 +4494,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="O4" t="n">
         <v>1181.483761245743</v>
@@ -4515,25 +4515,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U4" t="n">
-        <v>1292.062614956869</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V4" t="n">
-        <v>1005.1071068273</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="W4" t="n">
-        <v>1005.1071068273</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="X4" t="n">
-        <v>854.0542678022493</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="Y4" t="n">
-        <v>626.6345971163577</v>
+        <v>945.4513122260862</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1175.471904237179</v>
+        <v>542.9615250231907</v>
       </c>
       <c r="C5" t="n">
-        <v>1141.369835461006</v>
+        <v>508.859456247018</v>
       </c>
       <c r="D5" t="n">
-        <v>712.7881611982743</v>
+        <v>87.92182432615731</v>
       </c>
       <c r="E5" t="n">
-        <v>683.0538203969736</v>
+        <v>58.18748352485655</v>
       </c>
       <c r="F5" t="n">
-        <v>659.2267948465854</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G5" t="n">
-        <v>257.8289634698493</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H5" t="n">
         <v>34.36045797446834</v>
@@ -4570,7 +4570,7 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L5" t="n">
         <v>687.9235674375537</v>
@@ -4594,25 +4594,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T5" t="n">
-        <v>1477.116202953456</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U5" t="n">
-        <v>1217.893900270473</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V5" t="n">
-        <v>1217.893900270473</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="W5" t="n">
-        <v>1217.07884972191</v>
+        <v>1392.64927858873</v>
       </c>
       <c r="X5" t="n">
-        <v>1201.976790341625</v>
+        <v>973.506815168041</v>
       </c>
       <c r="Y5" t="n">
-        <v>1197.731070681682</v>
+        <v>565.2206914676945</v>
       </c>
     </row>
     <row r="6">
@@ -4646,13 +4646,13 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="K6" t="n">
-        <v>739.9048540962709</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="L6" t="n">
-        <v>739.9048540962709</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="M6" t="n">
         <v>739.9048540962709</v>
@@ -4661,7 +4661,7 @@
         <v>739.9048540962709</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P6" t="n">
         <v>1159.957753041174</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>422.5581434046701</v>
+        <v>343.6038466604966</v>
       </c>
       <c r="C7" t="n">
-        <v>422.5581434046701</v>
+        <v>343.6038466604966</v>
       </c>
       <c r="D7" t="n">
-        <v>256.6801506061928</v>
+        <v>343.6038466604966</v>
       </c>
       <c r="E7" t="n">
-        <v>256.6801506061928</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="F7" t="n">
-        <v>256.6801506061928</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G7" t="n">
-        <v>91.08887563202046</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H7" t="n">
         <v>33.94366860160834</v>
@@ -4728,19 +4728,19 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>538.7332355342593</v>
       </c>
       <c r="M7" t="n">
-        <v>813.4916901053949</v>
+        <v>958.7861344791625</v>
       </c>
       <c r="N7" t="n">
-        <v>1109.321405990304</v>
+        <v>958.7861344791625</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>1378.455383704944</v>
       </c>
       <c r="P7" t="n">
         <v>1528.990655216085</v>
@@ -4752,25 +4752,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U7" t="n">
-        <v>1418.750429333523</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V7" t="n">
-        <v>1131.794921203953</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="W7" t="n">
-        <v>859.7685167902448</v>
+        <v>454.6477016666967</v>
       </c>
       <c r="X7" t="n">
-        <v>614.3767621236573</v>
+        <v>343.6038466604966</v>
       </c>
       <c r="Y7" t="n">
-        <v>614.3767621236573</v>
+        <v>343.6038466604966</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>951.5866093689378</v>
+        <v>552.7406073489124</v>
       </c>
       <c r="C8" t="n">
-        <v>917.4845405927651</v>
+        <v>518.6385385727397</v>
       </c>
       <c r="D8" t="n">
-        <v>488.9028663300335</v>
+        <v>486.7691577875882</v>
       </c>
       <c r="E8" t="n">
-        <v>459.1685255287327</v>
+        <v>58.18748352485655</v>
       </c>
       <c r="F8" t="n">
-        <v>435.3414999783445</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I8" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J8" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K8" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L8" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M8" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N8" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O8" t="n">
         <v>687.9235674375537</v>
@@ -4834,22 +4834,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V8" t="n">
-        <v>1334.566480014244</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="W8" t="n">
-        <v>1333.751429465681</v>
+        <v>1072.260748364489</v>
       </c>
       <c r="X8" t="n">
-        <v>1318.649370085396</v>
+        <v>653.1182849437999</v>
       </c>
       <c r="Y8" t="n">
-        <v>1314.403650425453</v>
+        <v>574.9997737934161</v>
       </c>
     </row>
     <row r="9">
@@ -4862,7 +4862,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D9" t="n">
         <v>338.5686635760967</v>
@@ -4871,10 +4871,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H9" t="n">
         <v>33.94366860160834</v>
@@ -4889,19 +4889,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L9" t="n">
-        <v>804.6185656731816</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="M9" t="n">
-        <v>804.6185656731816</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="N9" t="n">
-        <v>804.6185656731816</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="O9" t="n">
-        <v>804.6185656731816</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="Q9" t="n">
         <v>1580.010651986078</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>606.0147495907747</v>
+        <v>858.4638871896879</v>
       </c>
       <c r="C10" t="n">
-        <v>509.1951216346689</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="D10" t="n">
-        <v>509.1951216346689</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E10" t="n">
-        <v>339.4371178854062</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F10" t="n">
         <v>339.4371178854062</v>
@@ -4962,19 +4962,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K10" t="n">
-        <v>341.3779633559367</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L10" t="n">
-        <v>341.3779633559367</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M10" t="n">
-        <v>761.43086230084</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="N10" t="n">
-        <v>1181.483761245743</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O10" t="n">
         <v>1181.483761245743</v>
@@ -4989,25 +4989,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S10" t="n">
-        <v>1516.524240083786</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T10" t="n">
-        <v>1270.644793662241</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U10" t="n">
-        <v>1270.644793662241</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V10" t="n">
-        <v>1270.644793662241</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="W10" t="n">
-        <v>1270.644793662241</v>
+        <v>879.4267572036415</v>
       </c>
       <c r="X10" t="n">
-        <v>1025.253038995654</v>
+        <v>858.4638871896879</v>
       </c>
       <c r="Y10" t="n">
-        <v>797.8333683097619</v>
+        <v>858.4638871896879</v>
       </c>
     </row>
     <row r="11">
@@ -5029,10 +5029,10 @@
         <v>1218.961883372208</v>
       </c>
       <c r="F11" t="n">
-        <v>791.0944537814162</v>
+        <v>791.0944537814161</v>
       </c>
       <c r="G11" t="n">
-        <v>389.8367995776304</v>
+        <v>389.8367995776303</v>
       </c>
       <c r="H11" t="n">
         <v>102.1422344933241</v>
@@ -5041,25 +5041,25 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J11" t="n">
-        <v>553.9456687731839</v>
+        <v>118.690981320266</v>
       </c>
       <c r="K11" t="n">
-        <v>1371.218789664405</v>
+        <v>136.1672052488785</v>
       </c>
       <c r="L11" t="n">
-        <v>2467.959557054138</v>
+        <v>1232.907972638611</v>
       </c>
       <c r="M11" t="n">
-        <v>2492.083625762057</v>
+        <v>2414.079876557081</v>
       </c>
       <c r="N11" t="n">
-        <v>2516.598047122608</v>
+        <v>3564.325281354079</v>
       </c>
       <c r="O11" t="n">
-        <v>3519.925986636534</v>
+        <v>4567.653220868006</v>
       </c>
       <c r="P11" t="n">
-        <v>4367.992376873088</v>
+        <v>4587.409736271163</v>
       </c>
       <c r="Q11" t="n">
         <v>4929.327483119182</v>
@@ -5117,31 +5117,31 @@
         <v>102.1422344933241</v>
       </c>
       <c r="I12" t="n">
-        <v>104.6731320533115</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J12" t="n">
-        <v>430.3611275969465</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K12" t="n">
-        <v>1122.964718427331</v>
+        <v>1005.791940332991</v>
       </c>
       <c r="L12" t="n">
-        <v>1138.925493421876</v>
+        <v>1021.752715327536</v>
       </c>
       <c r="M12" t="n">
-        <v>1157.550965019388</v>
+        <v>1040.378186925048</v>
       </c>
       <c r="N12" t="n">
-        <v>1176.669397428267</v>
+        <v>1059.496619333927</v>
       </c>
       <c r="O12" t="n">
-        <v>1194.159027993443</v>
+        <v>1076.986249899104</v>
       </c>
       <c r="P12" t="n">
-        <v>1208.195998435065</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q12" t="n">
-        <v>1758.318280071711</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R12" t="n">
         <v>1762.882278270333</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1127.534936933212</v>
+        <v>952.5753929162413</v>
       </c>
       <c r="C13" t="n">
-        <v>954.973225416437</v>
+        <v>780.0136813994662</v>
       </c>
       <c r="D13" t="n">
-        <v>789.0952326179597</v>
+        <v>614.1356886009889</v>
       </c>
       <c r="E13" t="n">
-        <v>619.3372288686969</v>
+        <v>444.3776848517263</v>
       </c>
       <c r="F13" t="n">
-        <v>442.6301748304531</v>
+        <v>267.6706308134825</v>
       </c>
       <c r="G13" t="n">
-        <v>328.2543770182384</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="H13" t="n">
-        <v>188.91125110521</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="I13" t="n">
         <v>102.1422344933241</v>
@@ -5217,34 +5217,34 @@
         <v>2251.583306098094</v>
       </c>
       <c r="P13" t="n">
-        <v>2606.543750200285</v>
+        <v>2606.543750200284</v>
       </c>
       <c r="Q13" t="n">
         <v>2779.896976828331</v>
       </c>
       <c r="R13" t="n">
-        <v>2761.306408467823</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S13" t="n">
-        <v>2603.160843218045</v>
+        <v>2621.751411578553</v>
       </c>
       <c r="T13" t="n">
-        <v>2357.550060136378</v>
+        <v>2454.616920533116</v>
       </c>
       <c r="U13" t="n">
-        <v>2079.120489134248</v>
+        <v>2176.187349530986</v>
       </c>
       <c r="V13" t="n">
-        <v>1792.164981004679</v>
+        <v>1889.231841401416</v>
       </c>
       <c r="W13" t="n">
-        <v>1792.164981004679</v>
+        <v>1617.205436987708</v>
       </c>
       <c r="X13" t="n">
-        <v>1546.773226338091</v>
+        <v>1371.81368232112</v>
       </c>
       <c r="Y13" t="n">
-        <v>1319.353555652199</v>
+        <v>1144.394011635228</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2526.788885856045</v>
+        <v>2526.788885856046</v>
       </c>
       <c r="C14" t="n">
         <v>2088.646413039469</v>
@@ -5281,25 +5281,25 @@
         <v>553.9456687731839</v>
       </c>
       <c r="K14" t="n">
-        <v>632.402696562455</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L14" t="n">
-        <v>1729.143463952188</v>
+        <v>1427.452985796848</v>
       </c>
       <c r="M14" t="n">
-        <v>2910.315367870658</v>
+        <v>1451.577054504767</v>
       </c>
       <c r="N14" t="n">
-        <v>4060.560772667655</v>
+        <v>2516.598047122608</v>
       </c>
       <c r="O14" t="n">
-        <v>5063.888712181582</v>
+        <v>3519.925986636534</v>
       </c>
       <c r="P14" t="n">
-        <v>5083.64522758474</v>
+        <v>4367.992376873088</v>
       </c>
       <c r="Q14" t="n">
-        <v>5098.481547872238</v>
+        <v>4929.327483119182</v>
       </c>
       <c r="R14" t="n">
         <v>5107.111724666206</v>
@@ -5323,7 +5323,7 @@
         <v>3361.3745800413</v>
       </c>
       <c r="Y14" t="n">
-        <v>2953.088456340953</v>
+        <v>2953.088456340954</v>
       </c>
     </row>
     <row r="15">
@@ -5360,22 +5360,22 @@
         <v>462.2401065289864</v>
       </c>
       <c r="K15" t="n">
-        <v>1154.843697359371</v>
+        <v>474.1101772889936</v>
       </c>
       <c r="L15" t="n">
-        <v>1170.804472353916</v>
+        <v>490.0709522835385</v>
       </c>
       <c r="M15" t="n">
-        <v>1189.429943951428</v>
+        <v>508.696423881051</v>
       </c>
       <c r="N15" t="n">
-        <v>1208.548376360307</v>
+        <v>527.8148562899291</v>
       </c>
       <c r="O15" t="n">
-        <v>1226.038006925483</v>
+        <v>545.3044868551059</v>
       </c>
       <c r="P15" t="n">
-        <v>1240.074977367105</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q15" t="n">
         <v>1641.145501977371</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3182.723280357379</v>
+        <v>952.5753929162413</v>
       </c>
       <c r="C16" t="n">
-        <v>3182.723280357379</v>
+        <v>780.0136813994662</v>
       </c>
       <c r="D16" t="n">
-        <v>3016.845287558902</v>
+        <v>614.1356886009889</v>
       </c>
       <c r="E16" t="n">
-        <v>2847.087283809639</v>
+        <v>444.3776848517263</v>
       </c>
       <c r="F16" t="n">
-        <v>2820.997521176271</v>
+        <v>267.6706308134825</v>
       </c>
       <c r="G16" t="n">
-        <v>2655.469124856113</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="H16" t="n">
-        <v>2516.125998943084</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="I16" t="n">
-        <v>2429.356982331198</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="J16" t="n">
-        <v>2520.293722469985</v>
+        <v>193.078974632111</v>
       </c>
       <c r="K16" t="n">
-        <v>2802.212156797963</v>
+        <v>474.9974089600885</v>
       </c>
       <c r="L16" t="n">
-        <v>3229.58434755993</v>
+        <v>902.3695997220553</v>
       </c>
       <c r="M16" t="n">
-        <v>3698.728584924507</v>
+        <v>1371.513837086632</v>
       </c>
       <c r="N16" t="n">
-        <v>4150.418056254837</v>
+        <v>1823.203308416962</v>
       </c>
       <c r="O16" t="n">
-        <v>4578.798053935969</v>
+        <v>2251.583306098094</v>
       </c>
       <c r="P16" t="n">
-        <v>4933.75849803816</v>
+        <v>2606.543750200284</v>
       </c>
       <c r="Q16" t="n">
-        <v>5107.111724666206</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="R16" t="n">
-        <v>5088.521156305698</v>
+        <v>2761.306408467823</v>
       </c>
       <c r="S16" t="n">
-        <v>4930.37559105592</v>
+        <v>2700.227703614783</v>
       </c>
       <c r="T16" t="n">
-        <v>4684.764807974254</v>
+        <v>2454.616920533116</v>
       </c>
       <c r="U16" t="n">
-        <v>4406.335236972123</v>
+        <v>2176.187349530986</v>
       </c>
       <c r="V16" t="n">
-        <v>4119.379728842554</v>
+        <v>1889.231841401416</v>
       </c>
       <c r="W16" t="n">
-        <v>3847.353324428846</v>
+        <v>1617.205436987708</v>
       </c>
       <c r="X16" t="n">
-        <v>3601.961569762258</v>
+        <v>1371.81368232112</v>
       </c>
       <c r="Y16" t="n">
-        <v>3374.541899076366</v>
+        <v>1144.394011635228</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2526.788885856045</v>
+        <v>2526.788885856046</v>
       </c>
       <c r="C17" t="n">
-        <v>2088.646413039468</v>
+        <v>2088.64641303947</v>
       </c>
       <c r="D17" t="n">
-        <v>1652.736628213913</v>
+        <v>1652.736628213914</v>
       </c>
       <c r="E17" t="n">
-        <v>1218.961883372208</v>
+        <v>1218.96188337221</v>
       </c>
       <c r="F17" t="n">
-        <v>791.0944537814162</v>
+        <v>791.0944537814172</v>
       </c>
       <c r="G17" t="n">
         <v>389.8367995776304</v>
@@ -5515,52 +5515,52 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J17" t="n">
-        <v>118.690981320266</v>
+        <v>553.9456687731839</v>
       </c>
       <c r="K17" t="n">
-        <v>136.1672052488785</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L17" t="n">
-        <v>1232.907972638611</v>
+        <v>1427.452985796848</v>
       </c>
       <c r="M17" t="n">
-        <v>1366.35264232561</v>
+        <v>1451.577054504767</v>
       </c>
       <c r="N17" t="n">
-        <v>2516.598047122608</v>
+        <v>2601.822459301764</v>
       </c>
       <c r="O17" t="n">
-        <v>3519.925986636534</v>
+        <v>3605.150398815691</v>
       </c>
       <c r="P17" t="n">
-        <v>4367.992376873088</v>
+        <v>4453.216789052244</v>
       </c>
       <c r="Q17" t="n">
-        <v>4929.327483119182</v>
+        <v>5014.551895298338</v>
       </c>
       <c r="R17" t="n">
         <v>5107.111724666206</v>
       </c>
       <c r="S17" t="n">
-        <v>5026.654138178648</v>
+        <v>5026.654138178649</v>
       </c>
       <c r="T17" t="n">
         <v>4807.200536626277</v>
       </c>
       <c r="U17" t="n">
-        <v>4547.989448117129</v>
+        <v>4547.98944811713</v>
       </c>
       <c r="V17" t="n">
-        <v>4185.372498050955</v>
+        <v>4185.372498050957</v>
       </c>
       <c r="W17" t="n">
-        <v>3780.517043461989</v>
+        <v>3780.51704346199</v>
       </c>
       <c r="X17" t="n">
-        <v>3361.374580041299</v>
+        <v>3361.374580041301</v>
       </c>
       <c r="Y17" t="n">
-        <v>2953.088456340953</v>
+        <v>2953.088456340954</v>
       </c>
     </row>
     <row r="18">
@@ -5603,19 +5603,19 @@
         <v>490.0709522835385</v>
       </c>
       <c r="M18" t="n">
-        <v>508.6964238810511</v>
+        <v>508.696423881051</v>
       </c>
       <c r="N18" t="n">
-        <v>1717.408336060342</v>
+        <v>527.8148562899291</v>
       </c>
       <c r="O18" t="n">
-        <v>1734.897966625519</v>
+        <v>545.3044868551059</v>
       </c>
       <c r="P18" t="n">
-        <v>1748.934937067141</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q18" t="n">
-        <v>1758.318280071711</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R18" t="n">
         <v>1762.882278270333</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1006.125823924381</v>
+        <v>874.0991008800115</v>
       </c>
       <c r="C19" t="n">
-        <v>1006.125823924381</v>
+        <v>701.5373893632365</v>
       </c>
       <c r="D19" t="n">
-        <v>840.2478311259033</v>
+        <v>535.6593965647592</v>
       </c>
       <c r="E19" t="n">
-        <v>670.4898273766405</v>
+        <v>365.9013928154964</v>
       </c>
       <c r="F19" t="n">
-        <v>493.7827733383967</v>
+        <v>189.1943387772526</v>
       </c>
       <c r="G19" t="n">
-        <v>328.2543770182384</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="H19" t="n">
-        <v>188.91125110521</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="I19" t="n">
         <v>102.1422344933241</v>
@@ -5691,34 +5691,34 @@
         <v>2251.583306098094</v>
       </c>
       <c r="P19" t="n">
-        <v>2606.543750200285</v>
+        <v>2606.543750200284</v>
       </c>
       <c r="Q19" t="n">
         <v>2779.896976828331</v>
       </c>
       <c r="R19" t="n">
-        <v>2761.306408467823</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S19" t="n">
-        <v>2603.160843218045</v>
+        <v>2621.751411578553</v>
       </c>
       <c r="T19" t="n">
-        <v>2357.550060136378</v>
+        <v>2376.140628496886</v>
       </c>
       <c r="U19" t="n">
-        <v>2079.120489134248</v>
+        <v>2097.711057494756</v>
       </c>
       <c r="V19" t="n">
-        <v>1942.782272409555</v>
+        <v>1810.755549365186</v>
       </c>
       <c r="W19" t="n">
-        <v>1670.755867995847</v>
+        <v>1538.729144951478</v>
       </c>
       <c r="X19" t="n">
-        <v>1425.364113329259</v>
+        <v>1293.33739028489</v>
       </c>
       <c r="Y19" t="n">
-        <v>1197.944442643368</v>
+        <v>1065.917719598999</v>
       </c>
     </row>
     <row r="20">
@@ -5752,25 +5752,25 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J20" t="n">
-        <v>118.690981320266</v>
+        <v>553.9456687731839</v>
       </c>
       <c r="K20" t="n">
-        <v>136.1672052488785</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L20" t="n">
-        <v>1232.907972638611</v>
+        <v>1427.452985796848</v>
       </c>
       <c r="M20" t="n">
-        <v>2414.079876557081</v>
+        <v>1451.577054504767</v>
       </c>
       <c r="N20" t="n">
-        <v>3564.325281354079</v>
+        <v>2516.598047122608</v>
       </c>
       <c r="O20" t="n">
-        <v>4567.653220868006</v>
+        <v>3519.925986636534</v>
       </c>
       <c r="P20" t="n">
-        <v>4914.491162831683</v>
+        <v>4367.992376873088</v>
       </c>
       <c r="Q20" t="n">
         <v>4929.327483119182</v>
@@ -5834,22 +5834,22 @@
         <v>462.2401065289864</v>
       </c>
       <c r="K21" t="n">
-        <v>591.9878301539627</v>
+        <v>1005.791940332991</v>
       </c>
       <c r="L21" t="n">
-        <v>1562.491653959612</v>
+        <v>1021.752715327536</v>
       </c>
       <c r="M21" t="n">
-        <v>1581.117125557124</v>
+        <v>1040.378186925048</v>
       </c>
       <c r="N21" t="n">
-        <v>1600.235557966002</v>
+        <v>1059.496619333927</v>
       </c>
       <c r="O21" t="n">
-        <v>1617.725188531179</v>
+        <v>1076.986249899104</v>
       </c>
       <c r="P21" t="n">
-        <v>1631.762158972801</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q21" t="n">
         <v>1641.145501977371</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1178.687535441156</v>
+        <v>952.5753929162413</v>
       </c>
       <c r="C22" t="n">
-        <v>1006.125823924381</v>
+        <v>780.0136813994662</v>
       </c>
       <c r="D22" t="n">
-        <v>840.2478311259033</v>
+        <v>614.1356886009889</v>
       </c>
       <c r="E22" t="n">
-        <v>670.4898273766405</v>
+        <v>444.3776848517263</v>
       </c>
       <c r="F22" t="n">
-        <v>493.7827733383967</v>
+        <v>267.6706308134825</v>
       </c>
       <c r="G22" t="n">
-        <v>328.2543770182384</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="H22" t="n">
-        <v>188.91125110521</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="I22" t="n">
         <v>102.1422344933241</v>
@@ -5928,34 +5928,34 @@
         <v>2251.583306098094</v>
       </c>
       <c r="P22" t="n">
-        <v>2606.543750200285</v>
+        <v>2606.543750200284</v>
       </c>
       <c r="Q22" t="n">
         <v>2779.896976828331</v>
       </c>
       <c r="R22" t="n">
-        <v>2761.306408467823</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S22" t="n">
-        <v>2698.920175453805</v>
+        <v>2700.227703614783</v>
       </c>
       <c r="T22" t="n">
-        <v>2453.309392372139</v>
+        <v>2454.616920533116</v>
       </c>
       <c r="U22" t="n">
-        <v>2174.879821370008</v>
+        <v>2176.187349530986</v>
       </c>
       <c r="V22" t="n">
-        <v>1887.924313240439</v>
+        <v>1889.231841401416</v>
       </c>
       <c r="W22" t="n">
-        <v>1615.89790882673</v>
+        <v>1617.205436987708</v>
       </c>
       <c r="X22" t="n">
-        <v>1370.506154160143</v>
+        <v>1371.81368232112</v>
       </c>
       <c r="Y22" t="n">
-        <v>1370.506154160143</v>
+        <v>1144.394011635228</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2526.788885856046</v>
+        <v>2526.788885856047</v>
       </c>
       <c r="C23" t="n">
-        <v>2088.646413039469</v>
+        <v>2088.64641303947</v>
       </c>
       <c r="D23" t="n">
-        <v>1652.736628213913</v>
+        <v>1652.736628213915</v>
       </c>
       <c r="E23" t="n">
-        <v>1218.961883372208</v>
+        <v>1218.96188337221</v>
       </c>
       <c r="F23" t="n">
-        <v>791.0944537814162</v>
+        <v>791.0944537814175</v>
       </c>
       <c r="G23" t="n">
         <v>389.8367995776304</v>
@@ -5992,49 +5992,49 @@
         <v>553.9456687731839</v>
       </c>
       <c r="K23" t="n">
-        <v>571.4218927017964</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L23" t="n">
-        <v>1165.360404977447</v>
+        <v>1427.452985796848</v>
       </c>
       <c r="M23" t="n">
-        <v>2346.532308895917</v>
+        <v>1451.577054504767</v>
       </c>
       <c r="N23" t="n">
-        <v>3496.777713692914</v>
+        <v>2601.822459301764</v>
       </c>
       <c r="O23" t="n">
-        <v>3519.925986636534</v>
+        <v>3605.150398815691</v>
       </c>
       <c r="P23" t="n">
-        <v>4367.992376873088</v>
+        <v>4453.216789052244</v>
       </c>
       <c r="Q23" t="n">
-        <v>4929.327483119182</v>
+        <v>5014.551895298338</v>
       </c>
       <c r="R23" t="n">
-        <v>5107.111724666206</v>
+        <v>5107.111724666207</v>
       </c>
       <c r="S23" t="n">
-        <v>5026.654138178648</v>
+        <v>5026.654138178649</v>
       </c>
       <c r="T23" t="n">
-        <v>4807.200536626277</v>
+        <v>4807.200536626278</v>
       </c>
       <c r="U23" t="n">
         <v>4547.98944811713</v>
       </c>
       <c r="V23" t="n">
-        <v>4185.372498050956</v>
+        <v>4185.372498050957</v>
       </c>
       <c r="W23" t="n">
-        <v>3780.517043461989</v>
+        <v>3780.51704346199</v>
       </c>
       <c r="X23" t="n">
-        <v>3361.3745800413</v>
+        <v>3361.374580041301</v>
       </c>
       <c r="Y23" t="n">
-        <v>2953.088456340954</v>
+        <v>2953.088456340955</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>102.1422344933241</v>
       </c>
       <c r="I24" t="n">
-        <v>104.6731320533115</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J24" t="n">
-        <v>300.8335366447527</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K24" t="n">
-        <v>312.7036074047599</v>
+        <v>474.1101772889936</v>
       </c>
       <c r="L24" t="n">
-        <v>328.6643823993048</v>
+        <v>490.0709522835385</v>
       </c>
       <c r="M24" t="n">
-        <v>347.2898539968173</v>
+        <v>508.696423881051</v>
       </c>
       <c r="N24" t="n">
-        <v>1600.235557966002</v>
+        <v>527.8148562899291</v>
       </c>
       <c r="O24" t="n">
-        <v>1617.725188531179</v>
+        <v>545.3044868551059</v>
       </c>
       <c r="P24" t="n">
-        <v>1631.762158972801</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q24" t="n">
         <v>1641.145501977371</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1013.159139120997</v>
+        <v>874.0991008800115</v>
       </c>
       <c r="C25" t="n">
-        <v>840.5974276042222</v>
+        <v>701.5373893632365</v>
       </c>
       <c r="D25" t="n">
-        <v>674.7194348057449</v>
+        <v>535.6593965647592</v>
       </c>
       <c r="E25" t="n">
-        <v>504.9614310564822</v>
+        <v>365.9013928154964</v>
       </c>
       <c r="F25" t="n">
-        <v>328.2543770182384</v>
+        <v>189.1943387772526</v>
       </c>
       <c r="G25" t="n">
-        <v>328.2543770182384</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="H25" t="n">
-        <v>188.91125110521</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="I25" t="n">
         <v>102.1422344933241</v>
@@ -6165,34 +6165,34 @@
         <v>2251.583306098094</v>
       </c>
       <c r="P25" t="n">
-        <v>2606.543750200285</v>
+        <v>2606.543750200284</v>
       </c>
       <c r="Q25" t="n">
         <v>2779.896976828331</v>
       </c>
       <c r="R25" t="n">
-        <v>2761.306408467823</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S25" t="n">
-        <v>2603.160843218045</v>
+        <v>2621.751411578553</v>
       </c>
       <c r="T25" t="n">
-        <v>2357.550060136378</v>
+        <v>2376.140628496886</v>
       </c>
       <c r="U25" t="n">
-        <v>2079.120489134248</v>
+        <v>2097.711057494756</v>
       </c>
       <c r="V25" t="n">
-        <v>1949.815587606172</v>
+        <v>1810.755549365186</v>
       </c>
       <c r="W25" t="n">
-        <v>1677.789183192464</v>
+        <v>1538.729144951478</v>
       </c>
       <c r="X25" t="n">
-        <v>1432.397428525876</v>
+        <v>1293.33739028489</v>
       </c>
       <c r="Y25" t="n">
-        <v>1204.977757839984</v>
+        <v>1065.917719598999</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2526.788885856045</v>
       </c>
       <c r="C26" t="n">
-        <v>2088.646413039468</v>
+        <v>2088.646413039469</v>
       </c>
       <c r="D26" t="n">
         <v>1652.736628213913</v>
@@ -6214,43 +6214,43 @@
         <v>1218.961883372208</v>
       </c>
       <c r="F26" t="n">
-        <v>791.094453781416</v>
+        <v>791.0944537814162</v>
       </c>
       <c r="G26" t="n">
-        <v>389.8367995776303</v>
+        <v>389.8367995776304</v>
       </c>
       <c r="H26" t="n">
         <v>102.1422344933241</v>
       </c>
       <c r="I26" t="n">
-        <v>107.030376497994</v>
+        <v>107.0303764979941</v>
       </c>
       <c r="J26" t="n">
-        <v>553.9456687731839</v>
+        <v>118.690981320266</v>
       </c>
       <c r="K26" t="n">
-        <v>1405.772184659974</v>
+        <v>970.5174972070564</v>
       </c>
       <c r="L26" t="n">
-        <v>2467.959557054137</v>
+        <v>2067.258264596789</v>
       </c>
       <c r="M26" t="n">
-        <v>2492.083625762056</v>
+        <v>2091.382333304708</v>
       </c>
       <c r="N26" t="n">
-        <v>2516.598047122607</v>
+        <v>3241.627738101705</v>
       </c>
       <c r="O26" t="n">
-        <v>3519.925986636533</v>
+        <v>4244.955677615632</v>
       </c>
       <c r="P26" t="n">
-        <v>4367.992376873087</v>
+        <v>5083.64522758474</v>
       </c>
       <c r="Q26" t="n">
-        <v>4929.327483119181</v>
+        <v>5098.481547872238</v>
       </c>
       <c r="R26" t="n">
-        <v>5107.111724666205</v>
+        <v>5107.111724666206</v>
       </c>
       <c r="S26" t="n">
         <v>5026.654138178648</v>
@@ -6259,10 +6259,10 @@
         <v>4807.200536626277</v>
       </c>
       <c r="U26" t="n">
-        <v>4547.989448117129</v>
+        <v>4547.98944811713</v>
       </c>
       <c r="V26" t="n">
-        <v>4185.372498050955</v>
+        <v>4185.372498050956</v>
       </c>
       <c r="W26" t="n">
         <v>3780.517043461989</v>
@@ -6284,49 +6284,49 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C27" t="n">
-        <v>501.0581612985753</v>
+        <v>501.0581612985754</v>
       </c>
       <c r="D27" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E27" t="n">
-        <v>311.8474577720823</v>
+        <v>311.8474577720824</v>
       </c>
       <c r="F27" t="n">
-        <v>228.4636193882439</v>
+        <v>228.463619388244</v>
       </c>
       <c r="G27" t="n">
-        <v>143.153531054087</v>
+        <v>143.1535310540871</v>
       </c>
       <c r="H27" t="n">
         <v>102.1422344933241</v>
       </c>
       <c r="I27" t="n">
-        <v>104.6731320533115</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J27" t="n">
-        <v>111.6181084023165</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K27" t="n">
-        <v>123.4881791623238</v>
+        <v>1005.791940332991</v>
       </c>
       <c r="L27" t="n">
-        <v>1093.992002967972</v>
+        <v>1021.752715327536</v>
       </c>
       <c r="M27" t="n">
-        <v>1112.617474565485</v>
+        <v>1040.378186925048</v>
       </c>
       <c r="N27" t="n">
-        <v>1131.735906974363</v>
+        <v>1059.496619333927</v>
       </c>
       <c r="O27" t="n">
-        <v>1149.22553753954</v>
+        <v>1076.986249899104</v>
       </c>
       <c r="P27" t="n">
-        <v>1748.934937067141</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q27" t="n">
-        <v>1758.318280071711</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R27" t="n">
         <v>1762.882278270333</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.5753929162413</v>
+        <v>1091.91851882927</v>
       </c>
       <c r="C28" t="n">
-        <v>780.0136813994662</v>
+        <v>919.3568073124947</v>
       </c>
       <c r="D28" t="n">
-        <v>614.1356886009889</v>
+        <v>753.4788145140174</v>
       </c>
       <c r="E28" t="n">
-        <v>444.3776848517263</v>
+        <v>583.7208107647547</v>
       </c>
       <c r="F28" t="n">
-        <v>267.6706308134825</v>
+        <v>407.0137567265109</v>
       </c>
       <c r="G28" t="n">
-        <v>102.1422344933241</v>
+        <v>241.4853604063525</v>
       </c>
       <c r="H28" t="n">
         <v>102.1422344933241</v>
@@ -6402,7 +6402,7 @@
         <v>2251.583306098094</v>
       </c>
       <c r="P28" t="n">
-        <v>2606.543750200285</v>
+        <v>2606.543750200284</v>
       </c>
       <c r="Q28" t="n">
         <v>2779.896976828331</v>
@@ -6411,25 +6411,25 @@
         <v>2779.896976828331</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.227703614783</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.616920533116</v>
+        <v>2593.960046446144</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.187349530986</v>
+        <v>2315.530475444014</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.231841401416</v>
+        <v>2028.574967314445</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.205436987708</v>
+        <v>1756.548562900736</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.81368232112</v>
+        <v>1511.156808234149</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.394011635228</v>
+        <v>1283.737137548257</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2526.788885856045</v>
+        <v>2526.788885856046</v>
       </c>
       <c r="C29" t="n">
-        <v>2088.646413039468</v>
+        <v>2088.646413039469</v>
       </c>
       <c r="D29" t="n">
-        <v>1652.736628213913</v>
+        <v>1652.736628213914</v>
       </c>
       <c r="E29" t="n">
-        <v>1218.961883372208</v>
+        <v>1218.961883372209</v>
       </c>
       <c r="F29" t="n">
-        <v>791.0944537814162</v>
+        <v>791.0944537814166</v>
       </c>
       <c r="G29" t="n">
         <v>389.8367995776304</v>
@@ -6460,55 +6460,55 @@
         <v>102.1422344933241</v>
       </c>
       <c r="I29" t="n">
-        <v>107.030376497994</v>
+        <v>107.0303764979941</v>
       </c>
       <c r="J29" t="n">
-        <v>118.690981320266</v>
+        <v>553.9456687731839</v>
       </c>
       <c r="K29" t="n">
-        <v>136.1672052488785</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L29" t="n">
-        <v>1232.907972638611</v>
+        <v>2467.959557054138</v>
       </c>
       <c r="M29" t="n">
-        <v>2414.079876557081</v>
+        <v>2492.083625762057</v>
       </c>
       <c r="N29" t="n">
-        <v>3564.325281354079</v>
+        <v>2516.598047122608</v>
       </c>
       <c r="O29" t="n">
-        <v>4567.653220868006</v>
+        <v>3519.925986636534</v>
       </c>
       <c r="P29" t="n">
-        <v>4587.409736271163</v>
+        <v>4367.992376873088</v>
       </c>
       <c r="Q29" t="n">
-        <v>4929.327483119181</v>
+        <v>4929.327483119182</v>
       </c>
       <c r="R29" t="n">
-        <v>5107.111724666205</v>
+        <v>5107.111724666206</v>
       </c>
       <c r="S29" t="n">
-        <v>5026.654138178647</v>
+        <v>5026.654138178649</v>
       </c>
       <c r="T29" t="n">
         <v>4807.200536626277</v>
       </c>
       <c r="U29" t="n">
-        <v>4547.989448117129</v>
+        <v>4547.98944811713</v>
       </c>
       <c r="V29" t="n">
-        <v>4185.372498050955</v>
+        <v>4185.372498050956</v>
       </c>
       <c r="W29" t="n">
         <v>3780.517043461989</v>
       </c>
       <c r="X29" t="n">
-        <v>3361.374580041299</v>
+        <v>3361.3745800413</v>
       </c>
       <c r="Y29" t="n">
-        <v>2953.088456340953</v>
+        <v>2953.088456340954</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3951.744068857806</v>
+        <v>607.5146224619331</v>
       </c>
       <c r="C30" t="n">
-        <v>3845.287607694449</v>
+        <v>501.0581612985754</v>
       </c>
       <c r="D30" t="n">
-        <v>3750.197318841002</v>
+        <v>405.9678724451286</v>
       </c>
       <c r="E30" t="n">
-        <v>3656.076904167955</v>
+        <v>311.8474577720824</v>
       </c>
       <c r="F30" t="n">
-        <v>3572.693065784117</v>
+        <v>228.463619388244</v>
       </c>
       <c r="G30" t="n">
-        <v>3487.38297744996</v>
+        <v>143.1535310540871</v>
       </c>
       <c r="H30" t="n">
-        <v>3446.371680889198</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="I30" t="n">
-        <v>3474.966251609643</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J30" t="n">
-        <v>3806.46955292486</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K30" t="n">
-        <v>4350.021386728864</v>
+        <v>474.1101772889936</v>
       </c>
       <c r="L30" t="n">
-        <v>4365.982161723408</v>
+        <v>490.0709522835385</v>
       </c>
       <c r="M30" t="n">
-        <v>4384.607633320921</v>
+        <v>508.696423881051</v>
       </c>
       <c r="N30" t="n">
-        <v>4403.726065729799</v>
+        <v>527.8148562899291</v>
       </c>
       <c r="O30" t="n">
-        <v>4421.215696294977</v>
+        <v>545.3044868551059</v>
       </c>
       <c r="P30" t="n">
-        <v>4435.252666736598</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q30" t="n">
-        <v>4985.374948373244</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R30" t="n">
-        <v>5107.111724666205</v>
+        <v>1762.882278270333</v>
       </c>
       <c r="S30" t="n">
-        <v>5045.049405217907</v>
+        <v>1700.819958822035</v>
       </c>
       <c r="T30" t="n">
-        <v>4915.173069821697</v>
+        <v>1570.943623425825</v>
       </c>
       <c r="U30" t="n">
-        <v>4738.841457124275</v>
+        <v>1394.612010728402</v>
       </c>
       <c r="V30" t="n">
-        <v>4539.723939186274</v>
+        <v>1195.494492790401</v>
       </c>
       <c r="W30" t="n">
-        <v>4354.401184919469</v>
+        <v>1010.171738523595</v>
       </c>
       <c r="X30" t="n">
-        <v>4199.533749158349</v>
+        <v>855.3043027624755</v>
       </c>
       <c r="Y30" t="n">
-        <v>4073.04796993757</v>
+        <v>728.8185235416962</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>855.5085325195037</v>
+        <v>874.0991008800115</v>
       </c>
       <c r="C31" t="n">
-        <v>682.9468210027286</v>
+        <v>701.5373893632365</v>
       </c>
       <c r="D31" t="n">
-        <v>524.1976511746311</v>
+        <v>535.6593965647592</v>
       </c>
       <c r="E31" t="n">
-        <v>354.4396474253683</v>
+        <v>365.9013928154964</v>
       </c>
       <c r="F31" t="n">
-        <v>354.4396474253683</v>
+        <v>189.1943387772526</v>
       </c>
       <c r="G31" t="n">
-        <v>188.9112511052099</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="H31" t="n">
-        <v>188.9112511052099</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="I31" t="n">
         <v>102.1422344933241</v>
@@ -6639,34 +6639,34 @@
         <v>2251.583306098094</v>
       </c>
       <c r="P31" t="n">
-        <v>2606.543750200285</v>
+        <v>2606.543750200284</v>
       </c>
       <c r="Q31" t="n">
         <v>2779.896976828331</v>
       </c>
       <c r="R31" t="n">
-        <v>2761.306408467823</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S31" t="n">
-        <v>2603.160843218045</v>
+        <v>2621.751411578553</v>
       </c>
       <c r="T31" t="n">
-        <v>2357.550060136378</v>
+        <v>2376.140628496886</v>
       </c>
       <c r="U31" t="n">
-        <v>2079.120489134248</v>
+        <v>2097.711057494756</v>
       </c>
       <c r="V31" t="n">
-        <v>1792.164981004679</v>
+        <v>1810.755549365186</v>
       </c>
       <c r="W31" t="n">
-        <v>1520.13857659097</v>
+        <v>1538.729144951478</v>
       </c>
       <c r="X31" t="n">
-        <v>1274.746821924383</v>
+        <v>1293.33739028489</v>
       </c>
       <c r="Y31" t="n">
-        <v>1047.327151238491</v>
+        <v>1065.917719598999</v>
       </c>
     </row>
     <row r="32">
@@ -6682,7 +6682,7 @@
         <v>2088.646413039469</v>
       </c>
       <c r="D32" t="n">
-        <v>1652.736628213913</v>
+        <v>1652.736628213914</v>
       </c>
       <c r="E32" t="n">
         <v>1218.961883372208</v>
@@ -6697,46 +6697,46 @@
         <v>102.1422344933241</v>
       </c>
       <c r="I32" t="n">
-        <v>107.030376497994</v>
+        <v>107.0303764979941</v>
       </c>
       <c r="J32" t="n">
-        <v>118.690981320266</v>
+        <v>553.9456687731839</v>
       </c>
       <c r="K32" t="n">
-        <v>970.5174972070564</v>
+        <v>1371.218789664405</v>
       </c>
       <c r="L32" t="n">
-        <v>2067.258264596789</v>
+        <v>2467.959557054138</v>
       </c>
       <c r="M32" t="n">
-        <v>3248.430168515259</v>
+        <v>2492.083625762057</v>
       </c>
       <c r="N32" t="n">
-        <v>3665.931778445969</v>
+        <v>2516.598047122608</v>
       </c>
       <c r="O32" t="n">
-        <v>3689.08005138959</v>
+        <v>3519.925986636534</v>
       </c>
       <c r="P32" t="n">
-        <v>4537.146441626143</v>
+        <v>4367.992376873088</v>
       </c>
       <c r="Q32" t="n">
-        <v>5098.481547872238</v>
+        <v>4929.327483119182</v>
       </c>
       <c r="R32" t="n">
-        <v>5107.111724666205</v>
+        <v>5107.111724666206</v>
       </c>
       <c r="S32" t="n">
-        <v>5026.654138178647</v>
+        <v>5026.654138178648</v>
       </c>
       <c r="T32" t="n">
-        <v>4807.200536626276</v>
+        <v>4807.200536626277</v>
       </c>
       <c r="U32" t="n">
-        <v>4547.989448117129</v>
+        <v>4547.98944811713</v>
       </c>
       <c r="V32" t="n">
-        <v>4185.372498050955</v>
+        <v>4185.372498050956</v>
       </c>
       <c r="W32" t="n">
         <v>3780.517043461989</v>
@@ -6758,28 +6758,28 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C33" t="n">
-        <v>501.0581612985753</v>
+        <v>501.0581612985754</v>
       </c>
       <c r="D33" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E33" t="n">
-        <v>311.8474577720823</v>
+        <v>311.8474577720824</v>
       </c>
       <c r="F33" t="n">
-        <v>228.4636193882439</v>
+        <v>228.463619388244</v>
       </c>
       <c r="G33" t="n">
-        <v>143.153531054087</v>
+        <v>143.1535310540871</v>
       </c>
       <c r="H33" t="n">
         <v>102.1422344933241</v>
       </c>
       <c r="I33" t="n">
-        <v>130.7368052137691</v>
+        <v>104.6731320533115</v>
       </c>
       <c r="J33" t="n">
-        <v>462.2401065289864</v>
+        <v>313.1883495026064</v>
       </c>
       <c r="K33" t="n">
         <v>1005.791940332991</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>855.5085325195037</v>
+        <v>952.5753929162413</v>
       </c>
       <c r="C34" t="n">
-        <v>682.9468210027286</v>
+        <v>780.0136813994662</v>
       </c>
       <c r="D34" t="n">
-        <v>517.0688282042513</v>
+        <v>614.1356886009889</v>
       </c>
       <c r="E34" t="n">
-        <v>493.7827733383967</v>
+        <v>444.3776848517263</v>
       </c>
       <c r="F34" t="n">
-        <v>493.7827733383967</v>
+        <v>267.6706308134825</v>
       </c>
       <c r="G34" t="n">
-        <v>328.2543770182384</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="H34" t="n">
-        <v>188.9112511052099</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="I34" t="n">
         <v>102.1422344933241</v>
@@ -6876,34 +6876,34 @@
         <v>2251.583306098094</v>
       </c>
       <c r="P34" t="n">
-        <v>2606.543750200285</v>
+        <v>2606.543750200284</v>
       </c>
       <c r="Q34" t="n">
         <v>2779.896976828331</v>
       </c>
       <c r="R34" t="n">
-        <v>2761.306408467823</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S34" t="n">
-        <v>2603.160843218045</v>
+        <v>2700.227703614783</v>
       </c>
       <c r="T34" t="n">
-        <v>2357.550060136378</v>
+        <v>2454.616920533116</v>
       </c>
       <c r="U34" t="n">
-        <v>2079.120489134248</v>
+        <v>2176.187349530986</v>
       </c>
       <c r="V34" t="n">
-        <v>1792.164981004679</v>
+        <v>1889.231841401416</v>
       </c>
       <c r="W34" t="n">
-        <v>1520.13857659097</v>
+        <v>1617.205436987708</v>
       </c>
       <c r="X34" t="n">
-        <v>1274.746821924383</v>
+        <v>1371.81368232112</v>
       </c>
       <c r="Y34" t="n">
-        <v>1047.327151238491</v>
+        <v>1144.394011635228</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2526.788885856046</v>
+        <v>2526.788885856045</v>
       </c>
       <c r="C35" t="n">
         <v>2088.646413039469</v>
       </c>
       <c r="D35" t="n">
-        <v>1652.736628213914</v>
+        <v>1652.736628213913</v>
       </c>
       <c r="E35" t="n">
-        <v>1218.961883372209</v>
+        <v>1218.961883372208</v>
       </c>
       <c r="F35" t="n">
-        <v>791.0944537814166</v>
+        <v>791.0944537814162</v>
       </c>
       <c r="G35" t="n">
-        <v>389.8367995776307</v>
+        <v>389.8367995776304</v>
       </c>
       <c r="H35" t="n">
         <v>102.1422344933241</v>
@@ -6937,19 +6937,19 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J35" t="n">
-        <v>118.690981320266</v>
+        <v>553.9456687731839</v>
       </c>
       <c r="K35" t="n">
-        <v>970.5174972070564</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L35" t="n">
-        <v>2067.258264596789</v>
+        <v>1427.452985796848</v>
       </c>
       <c r="M35" t="n">
-        <v>2346.532308895917</v>
+        <v>1451.577054504767</v>
       </c>
       <c r="N35" t="n">
-        <v>3496.777713692914</v>
+        <v>2516.598047122608</v>
       </c>
       <c r="O35" t="n">
         <v>3519.925986636534</v>
@@ -6982,7 +6982,7 @@
         <v>3361.3745800413</v>
       </c>
       <c r="Y35" t="n">
-        <v>2953.088456340954</v>
+        <v>2953.088456340953</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>102.1422344933241</v>
       </c>
       <c r="I36" t="n">
-        <v>121.6054508916822</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J36" t="n">
-        <v>453.1087522068995</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K36" t="n">
-        <v>464.9788229669068</v>
+        <v>1005.791940332991</v>
       </c>
       <c r="L36" t="n">
-        <v>480.9395979614517</v>
+        <v>1021.752715327536</v>
       </c>
       <c r="M36" t="n">
-        <v>1698.289903651464</v>
+        <v>1040.378186925048</v>
       </c>
       <c r="N36" t="n">
-        <v>1717.408336060342</v>
+        <v>1059.496619333927</v>
       </c>
       <c r="O36" t="n">
-        <v>1734.897966625519</v>
+        <v>1076.986249899104</v>
       </c>
       <c r="P36" t="n">
-        <v>1748.934937067141</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q36" t="n">
-        <v>1758.318280071711</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R36" t="n">
         <v>1762.882278270333</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1178.687535441156</v>
+        <v>952.5753929162413</v>
       </c>
       <c r="C37" t="n">
-        <v>1006.125823924381</v>
+        <v>780.0136813994662</v>
       </c>
       <c r="D37" t="n">
-        <v>840.2478311259033</v>
+        <v>614.1356886009889</v>
       </c>
       <c r="E37" t="n">
-        <v>670.4898273766405</v>
+        <v>444.3776848517263</v>
       </c>
       <c r="F37" t="n">
-        <v>493.7827733383967</v>
+        <v>267.6706308134825</v>
       </c>
       <c r="G37" t="n">
-        <v>328.2543770182384</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="H37" t="n">
-        <v>188.91125110521</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="I37" t="n">
         <v>102.1422344933241</v>
@@ -7113,34 +7113,34 @@
         <v>2251.583306098094</v>
       </c>
       <c r="P37" t="n">
-        <v>2606.543750200285</v>
+        <v>2606.543750200284</v>
       </c>
       <c r="Q37" t="n">
         <v>2779.896976828331</v>
       </c>
       <c r="R37" t="n">
-        <v>2761.306408467823</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S37" t="n">
-        <v>2603.160843218045</v>
+        <v>2621.751411578553</v>
       </c>
       <c r="T37" t="n">
-        <v>2357.550060136378</v>
+        <v>2454.616920533116</v>
       </c>
       <c r="U37" t="n">
-        <v>2130.273087642192</v>
+        <v>2176.187349530986</v>
       </c>
       <c r="V37" t="n">
-        <v>1843.317579512622</v>
+        <v>1889.231841401416</v>
       </c>
       <c r="W37" t="n">
-        <v>1843.317579512622</v>
+        <v>1617.205436987708</v>
       </c>
       <c r="X37" t="n">
-        <v>1597.925824846035</v>
+        <v>1371.81368232112</v>
       </c>
       <c r="Y37" t="n">
-        <v>1370.506154160143</v>
+        <v>1144.394011635228</v>
       </c>
     </row>
     <row r="38">
@@ -7156,16 +7156,16 @@
         <v>2088.646413039469</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.736628213913</v>
+        <v>1652.736628213914</v>
       </c>
       <c r="E38" t="n">
-        <v>1218.961883372208</v>
+        <v>1218.961883372209</v>
       </c>
       <c r="F38" t="n">
-        <v>791.0944537814162</v>
+        <v>791.0944537814166</v>
       </c>
       <c r="G38" t="n">
-        <v>389.8367995776304</v>
+        <v>389.8367995776308</v>
       </c>
       <c r="H38" t="n">
         <v>102.1422344933241</v>
@@ -7174,16 +7174,16 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J38" t="n">
-        <v>118.690981320266</v>
+        <v>553.9456687731839</v>
       </c>
       <c r="K38" t="n">
-        <v>136.1672052488785</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L38" t="n">
-        <v>1232.907972638611</v>
+        <v>2467.959557054138</v>
       </c>
       <c r="M38" t="n">
-        <v>2414.079876557081</v>
+        <v>2492.083625762057</v>
       </c>
       <c r="N38" t="n">
         <v>2516.598047122608</v>
@@ -7250,31 +7250,31 @@
         <v>102.1422344933241</v>
       </c>
       <c r="I39" t="n">
-        <v>104.6731320533115</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J39" t="n">
-        <v>436.1764333685289</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K39" t="n">
-        <v>1128.780024198913</v>
+        <v>1005.791940332991</v>
       </c>
       <c r="L39" t="n">
-        <v>1144.740799193458</v>
+        <v>1021.752715327536</v>
       </c>
       <c r="M39" t="n">
-        <v>1163.366270790971</v>
+        <v>1040.378186925048</v>
       </c>
       <c r="N39" t="n">
-        <v>1182.484703199849</v>
+        <v>1059.496619333927</v>
       </c>
       <c r="O39" t="n">
-        <v>1199.974333765026</v>
+        <v>1076.986249899104</v>
       </c>
       <c r="P39" t="n">
-        <v>1214.011304206648</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q39" t="n">
-        <v>1758.318280071711</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R39" t="n">
         <v>1762.882278270333</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1091.91851882927</v>
+        <v>1161.054609009581</v>
       </c>
       <c r="C40" t="n">
-        <v>919.3568073124947</v>
+        <v>988.492897492806</v>
       </c>
       <c r="D40" t="n">
-        <v>753.4788145140174</v>
+        <v>822.6149046943287</v>
       </c>
       <c r="E40" t="n">
-        <v>583.7208107647547</v>
+        <v>652.8569009450659</v>
       </c>
       <c r="F40" t="n">
-        <v>407.0137567265109</v>
+        <v>476.1498469068222</v>
       </c>
       <c r="G40" t="n">
-        <v>241.4853604063525</v>
+        <v>310.6214505866639</v>
       </c>
       <c r="H40" t="n">
-        <v>102.1422344933241</v>
+        <v>188.91125110521</v>
       </c>
       <c r="I40" t="n">
         <v>102.1422344933241</v>
@@ -7350,34 +7350,34 @@
         <v>2251.583306098094</v>
       </c>
       <c r="P40" t="n">
-        <v>2606.543750200285</v>
+        <v>2606.543750200284</v>
       </c>
       <c r="Q40" t="n">
         <v>2779.896976828331</v>
       </c>
       <c r="R40" t="n">
-        <v>2761.306408467823</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S40" t="n">
-        <v>2603.160843218045</v>
+        <v>2621.751411578553</v>
       </c>
       <c r="T40" t="n">
-        <v>2357.550060136378</v>
+        <v>2376.140628496886</v>
       </c>
       <c r="U40" t="n">
-        <v>2315.530475444014</v>
+        <v>2097.711057494756</v>
       </c>
       <c r="V40" t="n">
-        <v>2028.574967314445</v>
+        <v>2097.711057494756</v>
       </c>
       <c r="W40" t="n">
-        <v>1756.548562900736</v>
+        <v>1825.684653081048</v>
       </c>
       <c r="X40" t="n">
-        <v>1511.156808234149</v>
+        <v>1580.29289841446</v>
       </c>
       <c r="Y40" t="n">
-        <v>1283.737137548257</v>
+        <v>1352.873227728568</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2526.788885856045</v>
+        <v>2526.788885856047</v>
       </c>
       <c r="C41" t="n">
-        <v>2088.646413039469</v>
+        <v>2088.64641303947</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.736628213913</v>
+        <v>1652.736628213915</v>
       </c>
       <c r="E41" t="n">
-        <v>1218.961883372208</v>
+        <v>1218.96188337221</v>
       </c>
       <c r="F41" t="n">
-        <v>791.0944537814163</v>
+        <v>791.0944537814171</v>
       </c>
       <c r="G41" t="n">
-        <v>389.8367995776304</v>
+        <v>389.8367995776307</v>
       </c>
       <c r="H41" t="n">
         <v>102.1422344933241</v>
@@ -7417,13 +7417,13 @@
         <v>1405.772184659974</v>
       </c>
       <c r="L41" t="n">
-        <v>2322.408240187998</v>
+        <v>1427.452985796848</v>
       </c>
       <c r="M41" t="n">
-        <v>2346.532308895917</v>
+        <v>1451.577054504767</v>
       </c>
       <c r="N41" t="n">
-        <v>3496.777713692914</v>
+        <v>2516.598047122608</v>
       </c>
       <c r="O41" t="n">
         <v>3519.925986636534</v>
@@ -7447,16 +7447,16 @@
         <v>4547.98944811713</v>
       </c>
       <c r="V41" t="n">
-        <v>4185.372498050956</v>
+        <v>4185.372498050957</v>
       </c>
       <c r="W41" t="n">
-        <v>3780.517043461989</v>
+        <v>3780.51704346199</v>
       </c>
       <c r="X41" t="n">
-        <v>3361.3745800413</v>
+        <v>3361.374580041301</v>
       </c>
       <c r="Y41" t="n">
-        <v>2953.088456340953</v>
+        <v>2953.088456340955</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>102.1422344933241</v>
       </c>
       <c r="I42" t="n">
-        <v>104.6731320533115</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J42" t="n">
-        <v>436.1764333685289</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K42" t="n">
-        <v>1128.780024198913</v>
+        <v>474.1101772889936</v>
       </c>
       <c r="L42" t="n">
-        <v>1144.740799193458</v>
+        <v>490.0709522835385</v>
       </c>
       <c r="M42" t="n">
-        <v>1163.366270790971</v>
+        <v>508.696423881051</v>
       </c>
       <c r="N42" t="n">
-        <v>1182.484703199849</v>
+        <v>527.8148562899291</v>
       </c>
       <c r="O42" t="n">
-        <v>1199.974333765026</v>
+        <v>545.3044868551059</v>
       </c>
       <c r="P42" t="n">
-        <v>1214.011304206648</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q42" t="n">
         <v>1641.145501977371</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>922.160515080007</v>
+        <v>1091.91851882927</v>
       </c>
       <c r="C43" t="n">
-        <v>749.598803563232</v>
+        <v>919.3568073124947</v>
       </c>
       <c r="D43" t="n">
-        <v>583.7208107647547</v>
+        <v>753.4788145140174</v>
       </c>
       <c r="E43" t="n">
         <v>583.7208107647547</v>
@@ -7587,34 +7587,34 @@
         <v>2251.583306098094</v>
       </c>
       <c r="P43" t="n">
-        <v>2606.543750200285</v>
+        <v>2606.543750200284</v>
       </c>
       <c r="Q43" t="n">
         <v>2779.896976828331</v>
       </c>
       <c r="R43" t="n">
-        <v>2761.306408467823</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S43" t="n">
-        <v>2603.160843218045</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="T43" t="n">
-        <v>2357.550060136378</v>
+        <v>2534.286193746664</v>
       </c>
       <c r="U43" t="n">
-        <v>2079.120489134248</v>
+        <v>2255.856622744534</v>
       </c>
       <c r="V43" t="n">
-        <v>1792.164981004679</v>
+        <v>1968.901114614964</v>
       </c>
       <c r="W43" t="n">
-        <v>1520.13857659097</v>
+        <v>1696.874710201256</v>
       </c>
       <c r="X43" t="n">
-        <v>1341.398804484886</v>
+        <v>1451.482955534668</v>
       </c>
       <c r="Y43" t="n">
-        <v>1113.979133798994</v>
+        <v>1224.063284848777</v>
       </c>
     </row>
     <row r="44">
@@ -7657,25 +7657,25 @@
         <v>1427.452985796848</v>
       </c>
       <c r="M44" t="n">
-        <v>2608.624889715317</v>
+        <v>1451.577054504767</v>
       </c>
       <c r="N44" t="n">
-        <v>2633.139311075868</v>
+        <v>2516.598047122608</v>
       </c>
       <c r="O44" t="n">
-        <v>3636.467250589795</v>
+        <v>3519.925986636534</v>
       </c>
       <c r="P44" t="n">
-        <v>4484.533640826348</v>
+        <v>4367.992376873088</v>
       </c>
       <c r="Q44" t="n">
-        <v>5045.868747072443</v>
+        <v>4929.327483119182</v>
       </c>
       <c r="R44" t="n">
-        <v>5107.111724666207</v>
+        <v>5107.111724666206</v>
       </c>
       <c r="S44" t="n">
-        <v>5026.654138178649</v>
+        <v>5026.654138178648</v>
       </c>
       <c r="T44" t="n">
         <v>4807.200536626277</v>
@@ -7684,13 +7684,13 @@
         <v>4547.98944811713</v>
       </c>
       <c r="V44" t="n">
-        <v>4185.372498050957</v>
+        <v>4185.372498050956</v>
       </c>
       <c r="W44" t="n">
-        <v>3780.51704346199</v>
+        <v>3780.517043461989</v>
       </c>
       <c r="X44" t="n">
-        <v>3361.374580041301</v>
+        <v>3361.3745800413</v>
       </c>
       <c r="Y44" t="n">
         <v>2953.088456340954</v>
@@ -7724,13 +7724,13 @@
         <v>102.1422344933241</v>
       </c>
       <c r="I45" t="n">
-        <v>104.6731320533116</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J45" t="n">
-        <v>111.6181084023165</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K45" t="n">
-        <v>123.4881791623238</v>
+        <v>1005.791940332991</v>
       </c>
       <c r="L45" t="n">
         <v>1021.752715327536</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1091.91851882927</v>
+        <v>1178.687535441156</v>
       </c>
       <c r="C46" t="n">
-        <v>919.3568073124947</v>
+        <v>1006.125823924381</v>
       </c>
       <c r="D46" t="n">
-        <v>753.4788145140174</v>
+        <v>840.2478311259033</v>
       </c>
       <c r="E46" t="n">
-        <v>583.7208107647547</v>
+        <v>670.4898273766405</v>
       </c>
       <c r="F46" t="n">
-        <v>407.0137567265109</v>
+        <v>493.7827733383967</v>
       </c>
       <c r="G46" t="n">
-        <v>241.4853604063526</v>
+        <v>328.2543770182384</v>
       </c>
       <c r="H46" t="n">
-        <v>102.1422344933241</v>
+        <v>188.91125110521</v>
       </c>
       <c r="I46" t="n">
         <v>102.1422344933241</v>
@@ -7824,34 +7824,34 @@
         <v>2251.583306098094</v>
       </c>
       <c r="P46" t="n">
-        <v>2606.543750200285</v>
+        <v>2606.543750200284</v>
       </c>
       <c r="Q46" t="n">
         <v>2779.896976828331</v>
       </c>
       <c r="R46" t="n">
-        <v>2761.306408467823</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S46" t="n">
-        <v>2603.160843218045</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="T46" t="n">
-        <v>2357.550060136378</v>
+        <v>2680.72906305803</v>
       </c>
       <c r="U46" t="n">
-        <v>2079.120489134248</v>
+        <v>2402.2994920559</v>
       </c>
       <c r="V46" t="n">
-        <v>1792.164981004679</v>
+        <v>2115.343983926331</v>
       </c>
       <c r="W46" t="n">
-        <v>1520.13857659097</v>
+        <v>1843.317579512622</v>
       </c>
       <c r="X46" t="n">
-        <v>1511.156808234149</v>
+        <v>1597.925824846035</v>
       </c>
       <c r="Y46" t="n">
-        <v>1283.737137548257</v>
+        <v>1370.506154160143</v>
       </c>
     </row>
   </sheetData>
@@ -7981,25 +7981,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8054,22 +8054,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>407.152590549595</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8142,16 +8142,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8218,10 +8218,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8294,25 +8294,25 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>262.4693064538401</v>
       </c>
       <c r="K6" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -8376,22 +8376,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N7" t="n">
-        <v>298.8178948332412</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>152.0558298092333</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8452,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P8" t="n">
         <v>424.2958575201044</v>
@@ -8537,7 +8537,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8610,22 +8610,22 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>223.0854642319581</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>312.7888501519116</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>807.8756534975851</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>330.3852793540609</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>321.9626456511414</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>537.0522859030277</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,28 +8929,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>61.59677157642295</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>1051.016738643728</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>537.0522859030278</v>
       </c>
       <c r="Q15" t="n">
-        <v>395.643617783531</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9163,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>110.4248494738181</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -9187,7 +9187,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>84.77742684232362</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9254,19 +9254,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1201.60957552567</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>537.0522859030278</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>1051.016738643728</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>330.3852793540609</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9482,10 +9482,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>119.0683362272416</v>
+        <v>537.0522859030277</v>
       </c>
       <c r="L21" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9640,19 +9640,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>578.0380920593709</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
         <v>836.6766412458549</v>
@@ -9661,7 +9661,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>84.77742684232453</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>191.1266951943799</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9728,16 +9728,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>537.0522859030278</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1051.016738643727</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>827.2050854201516</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>537.0522859030277</v>
       </c>
       <c r="L27" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>591.5883122080595</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>1051.016738643728</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>330.38527935406</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10193,7 +10193,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>537.052285903027</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>537.0522859030278</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10348,22 +10348,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>807.8756534975851</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>396.9567561314743</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458549</v>
@@ -10372,7 +10372,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>203.606304141707</v>
       </c>
       <c r="K33" t="n">
-        <v>537.0522859030277</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10585,22 +10585,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>257.727248071928</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>1051.016738643728</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
@@ -10661,19 +10661,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>17.10335236199059</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>537.0522859030277</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>1051.016738643728</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>78.79166586361225</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>537.0522859030277</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>540.326901879286</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,16 +11065,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>903.9952064557074</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>1051.016738643728</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>537.0522859030278</v>
       </c>
       <c r="Q42" t="n">
-        <v>421.9705603698517</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11305,10 +11305,10 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1051.016738643728</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11320,7 +11320,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>53.14424323211824</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>537.0522859030277</v>
       </c>
       <c r="L45" t="n">
-        <v>891.2159203744113</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>50.64107252286419</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>137.9496946538981</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>18.40466267690321</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>77.69152911586727</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>149.1111184908265</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>137.9496946538981</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>96.09619179277027</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>77.69152911586755</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>137.9496946538981</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>18.40466267690321</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>149.111118490828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>137.9496946538981</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>18.40466267690321</v>
       </c>
       <c r="S22" t="n">
-        <v>94.8017389134024</v>
+        <v>77.69152911586704</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.8731123569568</v>
+        <v>77.69152911586757</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>137.9496946538981</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>18.40466267690321</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>156.0741005354786</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>137.9496946538981</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>85.90132644576698</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>18.4046626769032</v>
+        <v>18.40466267690321</v>
       </c>
       <c r="S28" t="n">
-        <v>77.6915291158666</v>
+        <v>156.56410959728</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>59.07711417248521</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>7.057534740676033</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>77.69152911586755</v>
       </c>
       <c r="H31" t="n">
         <v>137.9496946538981</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>18.40466267690321</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>145.0072293945741</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>137.9496946538981</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>18.40466267690321</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>77.69152911586704</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>137.9496946538981</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>18.40466267690321</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>77.69152911586727</v>
       </c>
       <c r="U37" t="n">
-        <v>50.64107252286408</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>17.45659716725878</v>
       </c>
       <c r="I40" t="n">
-        <v>85.90132644576698</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>18.40466267690321</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>234.0458864466683</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>59.07711417248535</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>18.40466267690321</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>156.56410959728</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>65.98546273489822</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>85.90132644576698</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>18.40466267690321</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>156.56410959728</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>144.9784406182523</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>234.0458864466684</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>605144.8545539237</v>
+        <v>605144.8545539236</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>605144.8545539237</v>
+        <v>605144.8545539236</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>605144.8545539236</v>
+        <v>605144.8545539237</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>605144.8545539237</v>
+        <v>605144.8545539236</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>605144.8545539237</v>
+        <v>605144.8545539236</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>605144.8545539237</v>
+        <v>605144.8545539236</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>605144.8545539237</v>
+        <v>605144.8545539236</v>
       </c>
     </row>
   </sheetData>
@@ -26316,19 +26316,19 @@
         <v>455725.2219068472</v>
       </c>
       <c r="C2" t="n">
-        <v>455725.2219068471</v>
+        <v>455725.2219068473</v>
       </c>
       <c r="D2" t="n">
         <v>455725.2219068472</v>
       </c>
       <c r="E2" t="n">
-        <v>449198.2987638416</v>
+        <v>449198.2987638414</v>
       </c>
       <c r="F2" t="n">
-        <v>449198.2987638416</v>
+        <v>449198.2987638415</v>
       </c>
       <c r="G2" t="n">
-        <v>449198.2987638416</v>
+        <v>449198.2987638414</v>
       </c>
       <c r="H2" t="n">
         <v>449198.2987638415</v>
@@ -26340,10 +26340,10 @@
         <v>449198.2987638416</v>
       </c>
       <c r="K2" t="n">
-        <v>449198.2987638415</v>
+        <v>449198.2987638416</v>
       </c>
       <c r="L2" t="n">
-        <v>449198.2987638414</v>
+        <v>449198.2987638416</v>
       </c>
       <c r="M2" t="n">
         <v>449198.2987638416</v>
@@ -26352,10 +26352,10 @@
         <v>449198.2987638417</v>
       </c>
       <c r="O2" t="n">
-        <v>449198.2987638415</v>
+        <v>449198.2987638416</v>
       </c>
       <c r="P2" t="n">
-        <v>449198.2987638415</v>
+        <v>449198.2987638416</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>282266.1702848778</v>
+        <v>282266.1702848779</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>111014.4653449901</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>212441.9426809893</v>
+        <v>212441.9426809892</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>230489.5592232714</v>
       </c>
       <c r="D4" t="n">
-        <v>230489.5592232715</v>
+        <v>230489.5592232714</v>
       </c>
       <c r="E4" t="n">
         <v>130330.8189708659</v>
@@ -26490,16 +26490,16 @@
         <v>78380.64252189653</v>
       </c>
       <c r="I5" t="n">
+        <v>78380.64252189655</v>
+      </c>
+      <c r="J5" t="n">
         <v>78380.64252189653</v>
       </c>
-      <c r="J5" t="n">
-        <v>78380.64252189652</v>
-      </c>
       <c r="K5" t="n">
-        <v>78380.64252189652</v>
+        <v>78380.64252189653</v>
       </c>
       <c r="L5" t="n">
-        <v>78380.64252189652</v>
+        <v>78380.64252189653</v>
       </c>
       <c r="M5" t="n">
         <v>78380.64252189653</v>
@@ -26511,7 +26511,7 @@
         <v>78380.64252189653</v>
       </c>
       <c r="P5" t="n">
-        <v>78380.64252189655</v>
+        <v>78380.64252189653</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23619.57388664351</v>
+        <v>23619.57388664346</v>
       </c>
       <c r="C6" t="n">
-        <v>165810.8745463533</v>
+        <v>165810.8745463535</v>
       </c>
       <c r="D6" t="n">
         <v>165810.8745463534</v>
       </c>
       <c r="E6" t="n">
-        <v>-41779.33301379863</v>
+        <v>-41798.52984657244</v>
       </c>
       <c r="F6" t="n">
-        <v>240486.8372710791</v>
+        <v>240467.6404383055</v>
       </c>
       <c r="G6" t="n">
-        <v>240486.8372710791</v>
+        <v>240467.6404383055</v>
       </c>
       <c r="H6" t="n">
-        <v>240486.8372710791</v>
+        <v>240467.6404383055</v>
       </c>
       <c r="I6" t="n">
-        <v>240486.8372710791</v>
+        <v>240467.6404383055</v>
       </c>
       <c r="J6" t="n">
-        <v>129472.3719260889</v>
+        <v>129453.1750933155</v>
       </c>
       <c r="K6" t="n">
-        <v>240486.8372710792</v>
+        <v>240467.6404383056</v>
       </c>
       <c r="L6" t="n">
-        <v>240486.8372710791</v>
+        <v>240467.6404383056</v>
       </c>
       <c r="M6" t="n">
-        <v>28044.89459008991</v>
+        <v>28025.69775731635</v>
       </c>
       <c r="N6" t="n">
-        <v>240486.8372710792</v>
+        <v>240467.6404383057</v>
       </c>
       <c r="O6" t="n">
-        <v>240486.8372710791</v>
+        <v>240467.6404383056</v>
       </c>
       <c r="P6" t="n">
-        <v>240486.8372710791</v>
+        <v>240467.6404383057</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>34.52038105367906</v>
+        <v>34.52038105367904</v>
       </c>
       <c r="F3" t="n">
-        <v>34.52038105367906</v>
+        <v>34.52038105367904</v>
       </c>
       <c r="G3" t="n">
-        <v>34.52038105367906</v>
+        <v>34.52038105367904</v>
       </c>
       <c r="H3" t="n">
-        <v>34.52038105367906</v>
+        <v>34.52038105367904</v>
       </c>
       <c r="I3" t="n">
-        <v>34.52038105367906</v>
+        <v>34.52038105367904</v>
       </c>
       <c r="J3" t="n">
-        <v>34.52038105367906</v>
+        <v>34.52038105367904</v>
       </c>
       <c r="K3" t="n">
-        <v>34.52038105367906</v>
+        <v>34.52038105367904</v>
       </c>
       <c r="L3" t="n">
-        <v>34.52038105367906</v>
+        <v>34.52038105367904</v>
       </c>
       <c r="M3" t="n">
-        <v>34.52038105367906</v>
+        <v>34.52038105367904</v>
       </c>
       <c r="N3" t="n">
-        <v>34.52038105367906</v>
+        <v>34.52038105367904</v>
       </c>
       <c r="O3" t="n">
-        <v>34.52038105367906</v>
+        <v>34.52038105367904</v>
       </c>
       <c r="P3" t="n">
-        <v>34.52038105367906</v>
+        <v>34.52038105367904</v>
       </c>
     </row>
     <row r="4">
@@ -26813,13 +26813,13 @@
         <v>1276.777931166552</v>
       </c>
       <c r="J4" t="n">
-        <v>1276.777931166551</v>
+        <v>1276.777931166552</v>
       </c>
       <c r="K4" t="n">
-        <v>1276.777931166551</v>
+        <v>1276.777931166552</v>
       </c>
       <c r="L4" t="n">
-        <v>1276.777931166551</v>
+        <v>1276.777931166552</v>
       </c>
       <c r="M4" t="n">
         <v>1276.777931166552</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>34.52038105367906</v>
+        <v>34.52038105367904</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>852.4820736464474</v>
+        <v>852.4820736464471</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>188.2245344746683</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>141.3403266439778</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27399,7 +27399,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>104.0667323918248</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,22 +27587,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>93.39552648512176</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27621,7 +27621,7 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>14.8224313756478</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27630,10 +27630,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>65.00503257078873</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -27681,10 +27681,10 @@
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>81.92939760642123</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27824,10 +27824,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>133.0044206637835</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>62.84770413410831</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>326.8659364244631</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>74.98466272506256</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28061,25 +28061,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>222.1845958061076</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
     </row>
     <row r="12">
@@ -29334,7 +29334,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>-5.590653145880544e-13</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -31755,46 +31755,46 @@
         <v>0.1387754012208202</v>
       </c>
       <c r="H11" t="n">
-        <v>1.421233577752726</v>
+        <v>1.421233577752725</v>
       </c>
       <c r="I11" t="n">
-        <v>5.350138655565678</v>
+        <v>5.350138655565674</v>
       </c>
       <c r="J11" t="n">
         <v>11.7783887093656</v>
       </c>
       <c r="K11" t="n">
-        <v>17.65275144304293</v>
+        <v>17.65275144304292</v>
       </c>
       <c r="L11" t="n">
-        <v>21.89979912815461</v>
+        <v>21.89979912815459</v>
       </c>
       <c r="M11" t="n">
-        <v>24.36774616961537</v>
+        <v>24.36774616961536</v>
       </c>
       <c r="N11" t="n">
-        <v>24.76204177833403</v>
+        <v>24.76204177833401</v>
       </c>
       <c r="O11" t="n">
-        <v>23.38209388244449</v>
+        <v>23.38209388244448</v>
       </c>
       <c r="P11" t="n">
-        <v>19.95607616480549</v>
+        <v>19.95607616480548</v>
       </c>
       <c r="Q11" t="n">
-        <v>14.98618210858486</v>
+        <v>14.98618210858485</v>
       </c>
       <c r="R11" t="n">
-        <v>8.717350296937356</v>
+        <v>8.717350296937351</v>
       </c>
       <c r="S11" t="n">
-        <v>3.162344455319444</v>
+        <v>3.162344455319442</v>
       </c>
       <c r="T11" t="n">
-        <v>0.6074893188441409</v>
+        <v>0.6074893188441405</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01110203209766562</v>
+        <v>0.01110203209766561</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07425138566263044</v>
+        <v>0.07425138566263038</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7171120667943519</v>
+        <v>0.7171120667943515</v>
       </c>
       <c r="I12" t="n">
-        <v>2.556462181805478</v>
+        <v>2.556462181805476</v>
       </c>
       <c r="J12" t="n">
-        <v>7.015127625257555</v>
+        <v>7.01512762525755</v>
       </c>
       <c r="K12" t="n">
         <v>11.98997046465379</v>
@@ -31849,31 +31849,31 @@
         <v>16.12199494398473</v>
       </c>
       <c r="M12" t="n">
-        <v>18.81360767425508</v>
+        <v>18.81360767425507</v>
       </c>
       <c r="N12" t="n">
-        <v>19.3115478877558</v>
+        <v>19.31154788775579</v>
       </c>
       <c r="O12" t="n">
-        <v>17.66629350017856</v>
+        <v>17.66629350017855</v>
       </c>
       <c r="P12" t="n">
-        <v>14.17875802184037</v>
+        <v>14.17875802184036</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.478124247040334</v>
+        <v>9.478124247040329</v>
       </c>
       <c r="R12" t="n">
-        <v>4.610099190527179</v>
+        <v>4.610099190527176</v>
       </c>
       <c r="S12" t="n">
-        <v>1.379186922286139</v>
+        <v>1.379186922286138</v>
       </c>
       <c r="T12" t="n">
-        <v>0.2992851904559533</v>
+        <v>0.2992851904559531</v>
       </c>
       <c r="U12" t="n">
-        <v>0.004884959583067793</v>
+        <v>0.004884959583067791</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06224986747384748</v>
+        <v>0.06224986747384744</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5534579126311171</v>
+        <v>0.5534579126311168</v>
       </c>
       <c r="I13" t="n">
-        <v>1.872023287304432</v>
+        <v>1.872023287304431</v>
       </c>
       <c r="J13" t="n">
-        <v>4.401065630401017</v>
+        <v>4.401065630401014</v>
       </c>
       <c r="K13" t="n">
-        <v>7.232302784688824</v>
+        <v>7.232302784688819</v>
       </c>
       <c r="L13" t="n">
-        <v>9.254857569702743</v>
+        <v>9.254857569702738</v>
       </c>
       <c r="M13" t="n">
-        <v>9.757949680468654</v>
+        <v>9.757949680468649</v>
       </c>
       <c r="N13" t="n">
-        <v>9.525927447157049</v>
+        <v>9.525927447157043</v>
       </c>
       <c r="O13" t="n">
-        <v>8.798735813485282</v>
+        <v>8.798735813485276</v>
       </c>
       <c r="P13" t="n">
-        <v>7.528838517018786</v>
+        <v>7.528838517018782</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.212577539105538</v>
+        <v>5.212577539105535</v>
       </c>
       <c r="R13" t="n">
-        <v>2.798980404778632</v>
+        <v>2.79898040477863</v>
       </c>
       <c r="S13" t="n">
         <v>1.084845417703323</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2659767064791664</v>
+        <v>0.2659767064791663</v>
       </c>
       <c r="U13" t="n">
-        <v>0.003395447316755321</v>
+        <v>0.003395447316755319</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,46 +31992,46 @@
         <v>0.1387754012208202</v>
       </c>
       <c r="H14" t="n">
-        <v>1.421233577752726</v>
+        <v>1.421233577752725</v>
       </c>
       <c r="I14" t="n">
-        <v>5.350138655565678</v>
+        <v>5.350138655565674</v>
       </c>
       <c r="J14" t="n">
         <v>11.7783887093656</v>
       </c>
       <c r="K14" t="n">
-        <v>17.65275144304293</v>
+        <v>17.65275144304292</v>
       </c>
       <c r="L14" t="n">
-        <v>21.89979912815461</v>
+        <v>21.89979912815459</v>
       </c>
       <c r="M14" t="n">
-        <v>24.36774616961537</v>
+        <v>24.36774616961536</v>
       </c>
       <c r="N14" t="n">
-        <v>24.76204177833403</v>
+        <v>24.76204177833401</v>
       </c>
       <c r="O14" t="n">
-        <v>23.38209388244449</v>
+        <v>23.38209388244448</v>
       </c>
       <c r="P14" t="n">
-        <v>19.95607616480549</v>
+        <v>19.95607616480548</v>
       </c>
       <c r="Q14" t="n">
-        <v>14.98618210858486</v>
+        <v>14.98618210858485</v>
       </c>
       <c r="R14" t="n">
-        <v>8.717350296937356</v>
+        <v>8.717350296937351</v>
       </c>
       <c r="S14" t="n">
-        <v>3.162344455319444</v>
+        <v>3.162344455319442</v>
       </c>
       <c r="T14" t="n">
-        <v>0.6074893188441409</v>
+        <v>0.6074893188441405</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01110203209766562</v>
+        <v>0.01110203209766561</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.07425138566263044</v>
+        <v>0.07425138566263038</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7171120667943519</v>
+        <v>0.7171120667943515</v>
       </c>
       <c r="I15" t="n">
-        <v>2.556462181805478</v>
+        <v>2.556462181805476</v>
       </c>
       <c r="J15" t="n">
-        <v>7.015127625257555</v>
+        <v>7.01512762525755</v>
       </c>
       <c r="K15" t="n">
         <v>11.98997046465379</v>
@@ -32086,31 +32086,31 @@
         <v>16.12199494398473</v>
       </c>
       <c r="M15" t="n">
-        <v>18.81360767425508</v>
+        <v>18.81360767425507</v>
       </c>
       <c r="N15" t="n">
-        <v>19.3115478877558</v>
+        <v>19.31154788775579</v>
       </c>
       <c r="O15" t="n">
-        <v>17.66629350017856</v>
+        <v>17.66629350017855</v>
       </c>
       <c r="P15" t="n">
-        <v>14.17875802184037</v>
+        <v>14.17875802184036</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.478124247040334</v>
+        <v>9.478124247040329</v>
       </c>
       <c r="R15" t="n">
-        <v>4.610099190527179</v>
+        <v>4.610099190527176</v>
       </c>
       <c r="S15" t="n">
-        <v>1.379186922286139</v>
+        <v>1.379186922286138</v>
       </c>
       <c r="T15" t="n">
-        <v>0.2992851904559533</v>
+        <v>0.2992851904559531</v>
       </c>
       <c r="U15" t="n">
-        <v>0.004884959583067793</v>
+        <v>0.004884959583067791</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.06224986747384748</v>
+        <v>0.06224986747384744</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5534579126311171</v>
+        <v>0.5534579126311168</v>
       </c>
       <c r="I16" t="n">
-        <v>1.872023287304432</v>
+        <v>1.872023287304431</v>
       </c>
       <c r="J16" t="n">
-        <v>4.401065630401017</v>
+        <v>4.401065630401014</v>
       </c>
       <c r="K16" t="n">
-        <v>7.232302784688824</v>
+        <v>7.232302784688819</v>
       </c>
       <c r="L16" t="n">
-        <v>9.254857569702743</v>
+        <v>9.254857569702738</v>
       </c>
       <c r="M16" t="n">
-        <v>9.757949680468654</v>
+        <v>9.757949680468649</v>
       </c>
       <c r="N16" t="n">
-        <v>9.525927447157049</v>
+        <v>9.525927447157043</v>
       </c>
       <c r="O16" t="n">
-        <v>8.798735813485282</v>
+        <v>8.798735813485276</v>
       </c>
       <c r="P16" t="n">
-        <v>7.528838517018786</v>
+        <v>7.528838517018782</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.212577539105538</v>
+        <v>5.212577539105535</v>
       </c>
       <c r="R16" t="n">
-        <v>2.798980404778632</v>
+        <v>2.79898040477863</v>
       </c>
       <c r="S16" t="n">
         <v>1.084845417703323</v>
       </c>
       <c r="T16" t="n">
-        <v>0.2659767064791664</v>
+        <v>0.2659767064791663</v>
       </c>
       <c r="U16" t="n">
-        <v>0.003395447316755321</v>
+        <v>0.003395447316755319</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,46 +32229,46 @@
         <v>0.1387754012208202</v>
       </c>
       <c r="H17" t="n">
-        <v>1.421233577752726</v>
+        <v>1.421233577752725</v>
       </c>
       <c r="I17" t="n">
-        <v>5.350138655565678</v>
+        <v>5.350138655565674</v>
       </c>
       <c r="J17" t="n">
         <v>11.7783887093656</v>
       </c>
       <c r="K17" t="n">
-        <v>17.65275144304293</v>
+        <v>17.65275144304292</v>
       </c>
       <c r="L17" t="n">
-        <v>21.89979912815461</v>
+        <v>21.89979912815459</v>
       </c>
       <c r="M17" t="n">
-        <v>24.36774616961537</v>
+        <v>24.36774616961536</v>
       </c>
       <c r="N17" t="n">
-        <v>24.76204177833403</v>
+        <v>24.76204177833401</v>
       </c>
       <c r="O17" t="n">
-        <v>23.38209388244449</v>
+        <v>23.38209388244448</v>
       </c>
       <c r="P17" t="n">
-        <v>19.95607616480549</v>
+        <v>19.95607616480548</v>
       </c>
       <c r="Q17" t="n">
-        <v>14.98618210858486</v>
+        <v>14.98618210858485</v>
       </c>
       <c r="R17" t="n">
-        <v>8.717350296937356</v>
+        <v>8.717350296937351</v>
       </c>
       <c r="S17" t="n">
-        <v>3.162344455319444</v>
+        <v>3.162344455319442</v>
       </c>
       <c r="T17" t="n">
-        <v>0.6074893188441409</v>
+        <v>0.6074893188441405</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01110203209766562</v>
+        <v>0.01110203209766561</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07425138566263044</v>
+        <v>0.07425138566263038</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7171120667943519</v>
+        <v>0.7171120667943515</v>
       </c>
       <c r="I18" t="n">
-        <v>2.556462181805478</v>
+        <v>2.556462181805476</v>
       </c>
       <c r="J18" t="n">
-        <v>7.015127625257555</v>
+        <v>7.01512762525755</v>
       </c>
       <c r="K18" t="n">
         <v>11.98997046465379</v>
@@ -32323,31 +32323,31 @@
         <v>16.12199494398473</v>
       </c>
       <c r="M18" t="n">
-        <v>18.81360767425508</v>
+        <v>18.81360767425507</v>
       </c>
       <c r="N18" t="n">
-        <v>19.3115478877558</v>
+        <v>19.31154788775579</v>
       </c>
       <c r="O18" t="n">
-        <v>17.66629350017856</v>
+        <v>17.66629350017855</v>
       </c>
       <c r="P18" t="n">
-        <v>14.17875802184037</v>
+        <v>14.17875802184036</v>
       </c>
       <c r="Q18" t="n">
-        <v>9.478124247040334</v>
+        <v>9.478124247040329</v>
       </c>
       <c r="R18" t="n">
-        <v>4.610099190527179</v>
+        <v>4.610099190527176</v>
       </c>
       <c r="S18" t="n">
-        <v>1.379186922286139</v>
+        <v>1.379186922286138</v>
       </c>
       <c r="T18" t="n">
-        <v>0.2992851904559533</v>
+        <v>0.2992851904559531</v>
       </c>
       <c r="U18" t="n">
-        <v>0.004884959583067793</v>
+        <v>0.004884959583067791</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06224986747384748</v>
+        <v>0.06224986747384744</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5534579126311171</v>
+        <v>0.5534579126311168</v>
       </c>
       <c r="I19" t="n">
-        <v>1.872023287304432</v>
+        <v>1.872023287304431</v>
       </c>
       <c r="J19" t="n">
-        <v>4.401065630401017</v>
+        <v>4.401065630401014</v>
       </c>
       <c r="K19" t="n">
-        <v>7.232302784688824</v>
+        <v>7.232302784688819</v>
       </c>
       <c r="L19" t="n">
-        <v>9.254857569702743</v>
+        <v>9.254857569702738</v>
       </c>
       <c r="M19" t="n">
-        <v>9.757949680468654</v>
+        <v>9.757949680468649</v>
       </c>
       <c r="N19" t="n">
-        <v>9.525927447157049</v>
+        <v>9.525927447157043</v>
       </c>
       <c r="O19" t="n">
-        <v>8.798735813485282</v>
+        <v>8.798735813485276</v>
       </c>
       <c r="P19" t="n">
-        <v>7.528838517018786</v>
+        <v>7.528838517018782</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.212577539105538</v>
+        <v>5.212577539105535</v>
       </c>
       <c r="R19" t="n">
-        <v>2.798980404778632</v>
+        <v>2.79898040477863</v>
       </c>
       <c r="S19" t="n">
         <v>1.084845417703323</v>
       </c>
       <c r="T19" t="n">
-        <v>0.2659767064791664</v>
+        <v>0.2659767064791663</v>
       </c>
       <c r="U19" t="n">
-        <v>0.003395447316755321</v>
+        <v>0.003395447316755319</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,46 +32466,46 @@
         <v>0.1387754012208202</v>
       </c>
       <c r="H20" t="n">
-        <v>1.421233577752726</v>
+        <v>1.421233577752725</v>
       </c>
       <c r="I20" t="n">
-        <v>5.350138655565678</v>
+        <v>5.350138655565674</v>
       </c>
       <c r="J20" t="n">
         <v>11.7783887093656</v>
       </c>
       <c r="K20" t="n">
-        <v>17.65275144304293</v>
+        <v>17.65275144304292</v>
       </c>
       <c r="L20" t="n">
-        <v>21.89979912815461</v>
+        <v>21.89979912815459</v>
       </c>
       <c r="M20" t="n">
-        <v>24.36774616961537</v>
+        <v>24.36774616961536</v>
       </c>
       <c r="N20" t="n">
-        <v>24.76204177833403</v>
+        <v>24.76204177833401</v>
       </c>
       <c r="O20" t="n">
-        <v>23.38209388244449</v>
+        <v>23.38209388244448</v>
       </c>
       <c r="P20" t="n">
-        <v>19.95607616480549</v>
+        <v>19.95607616480548</v>
       </c>
       <c r="Q20" t="n">
-        <v>14.98618210858486</v>
+        <v>14.98618210858485</v>
       </c>
       <c r="R20" t="n">
-        <v>8.717350296937356</v>
+        <v>8.717350296937351</v>
       </c>
       <c r="S20" t="n">
-        <v>3.162344455319444</v>
+        <v>3.162344455319442</v>
       </c>
       <c r="T20" t="n">
-        <v>0.6074893188441409</v>
+        <v>0.6074893188441405</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01110203209766562</v>
+        <v>0.01110203209766561</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.07425138566263044</v>
+        <v>0.07425138566263038</v>
       </c>
       <c r="H21" t="n">
-        <v>0.7171120667943519</v>
+        <v>0.7171120667943515</v>
       </c>
       <c r="I21" t="n">
-        <v>2.556462181805478</v>
+        <v>2.556462181805476</v>
       </c>
       <c r="J21" t="n">
-        <v>7.015127625257555</v>
+        <v>7.01512762525755</v>
       </c>
       <c r="K21" t="n">
         <v>11.98997046465379</v>
@@ -32560,31 +32560,31 @@
         <v>16.12199494398473</v>
       </c>
       <c r="M21" t="n">
-        <v>18.81360767425508</v>
+        <v>18.81360767425507</v>
       </c>
       <c r="N21" t="n">
-        <v>19.3115478877558</v>
+        <v>19.31154788775579</v>
       </c>
       <c r="O21" t="n">
-        <v>17.66629350017856</v>
+        <v>17.66629350017855</v>
       </c>
       <c r="P21" t="n">
-        <v>14.17875802184037</v>
+        <v>14.17875802184036</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.478124247040334</v>
+        <v>9.478124247040329</v>
       </c>
       <c r="R21" t="n">
-        <v>4.610099190527179</v>
+        <v>4.610099190527176</v>
       </c>
       <c r="S21" t="n">
-        <v>1.379186922286139</v>
+        <v>1.379186922286138</v>
       </c>
       <c r="T21" t="n">
-        <v>0.2992851904559533</v>
+        <v>0.2992851904559531</v>
       </c>
       <c r="U21" t="n">
-        <v>0.004884959583067793</v>
+        <v>0.004884959583067791</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06224986747384748</v>
+        <v>0.06224986747384744</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5534579126311171</v>
+        <v>0.5534579126311168</v>
       </c>
       <c r="I22" t="n">
-        <v>1.872023287304432</v>
+        <v>1.872023287304431</v>
       </c>
       <c r="J22" t="n">
-        <v>4.401065630401017</v>
+        <v>4.401065630401014</v>
       </c>
       <c r="K22" t="n">
-        <v>7.232302784688824</v>
+        <v>7.232302784688819</v>
       </c>
       <c r="L22" t="n">
-        <v>9.254857569702743</v>
+        <v>9.254857569702738</v>
       </c>
       <c r="M22" t="n">
-        <v>9.757949680468654</v>
+        <v>9.757949680468649</v>
       </c>
       <c r="N22" t="n">
-        <v>9.525927447157049</v>
+        <v>9.525927447157043</v>
       </c>
       <c r="O22" t="n">
-        <v>8.798735813485282</v>
+        <v>8.798735813485276</v>
       </c>
       <c r="P22" t="n">
-        <v>7.528838517018786</v>
+        <v>7.528838517018782</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.212577539105538</v>
+        <v>5.212577539105535</v>
       </c>
       <c r="R22" t="n">
-        <v>2.798980404778632</v>
+        <v>2.79898040477863</v>
       </c>
       <c r="S22" t="n">
         <v>1.084845417703323</v>
       </c>
       <c r="T22" t="n">
-        <v>0.2659767064791664</v>
+        <v>0.2659767064791663</v>
       </c>
       <c r="U22" t="n">
-        <v>0.003395447316755321</v>
+        <v>0.003395447316755319</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,46 +32703,46 @@
         <v>0.1387754012208202</v>
       </c>
       <c r="H23" t="n">
-        <v>1.421233577752726</v>
+        <v>1.421233577752725</v>
       </c>
       <c r="I23" t="n">
-        <v>5.350138655565678</v>
+        <v>5.350138655565674</v>
       </c>
       <c r="J23" t="n">
         <v>11.7783887093656</v>
       </c>
       <c r="K23" t="n">
-        <v>17.65275144304293</v>
+        <v>17.65275144304292</v>
       </c>
       <c r="L23" t="n">
-        <v>21.89979912815461</v>
+        <v>21.89979912815459</v>
       </c>
       <c r="M23" t="n">
-        <v>24.36774616961537</v>
+        <v>24.36774616961536</v>
       </c>
       <c r="N23" t="n">
-        <v>24.76204177833403</v>
+        <v>24.76204177833401</v>
       </c>
       <c r="O23" t="n">
-        <v>23.38209388244449</v>
+        <v>23.38209388244448</v>
       </c>
       <c r="P23" t="n">
-        <v>19.95607616480549</v>
+        <v>19.95607616480548</v>
       </c>
       <c r="Q23" t="n">
-        <v>14.98618210858486</v>
+        <v>14.98618210858485</v>
       </c>
       <c r="R23" t="n">
-        <v>8.717350296937356</v>
+        <v>8.717350296937351</v>
       </c>
       <c r="S23" t="n">
-        <v>3.162344455319444</v>
+        <v>3.162344455319442</v>
       </c>
       <c r="T23" t="n">
-        <v>0.6074893188441409</v>
+        <v>0.6074893188441405</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01110203209766562</v>
+        <v>0.01110203209766561</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.07425138566263044</v>
+        <v>0.07425138566263038</v>
       </c>
       <c r="H24" t="n">
-        <v>0.7171120667943519</v>
+        <v>0.7171120667943515</v>
       </c>
       <c r="I24" t="n">
-        <v>2.556462181805478</v>
+        <v>2.556462181805476</v>
       </c>
       <c r="J24" t="n">
-        <v>7.015127625257555</v>
+        <v>7.01512762525755</v>
       </c>
       <c r="K24" t="n">
         <v>11.98997046465379</v>
@@ -32797,31 +32797,31 @@
         <v>16.12199494398473</v>
       </c>
       <c r="M24" t="n">
-        <v>18.81360767425508</v>
+        <v>18.81360767425507</v>
       </c>
       <c r="N24" t="n">
-        <v>19.3115478877558</v>
+        <v>19.31154788775579</v>
       </c>
       <c r="O24" t="n">
-        <v>17.66629350017856</v>
+        <v>17.66629350017855</v>
       </c>
       <c r="P24" t="n">
-        <v>14.17875802184037</v>
+        <v>14.17875802184036</v>
       </c>
       <c r="Q24" t="n">
-        <v>9.478124247040334</v>
+        <v>9.478124247040329</v>
       </c>
       <c r="R24" t="n">
-        <v>4.610099190527179</v>
+        <v>4.610099190527176</v>
       </c>
       <c r="S24" t="n">
-        <v>1.379186922286139</v>
+        <v>1.379186922286138</v>
       </c>
       <c r="T24" t="n">
-        <v>0.2992851904559533</v>
+        <v>0.2992851904559531</v>
       </c>
       <c r="U24" t="n">
-        <v>0.004884959583067793</v>
+        <v>0.004884959583067791</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.06224986747384748</v>
+        <v>0.06224986747384744</v>
       </c>
       <c r="H25" t="n">
-        <v>0.5534579126311171</v>
+        <v>0.5534579126311168</v>
       </c>
       <c r="I25" t="n">
-        <v>1.872023287304432</v>
+        <v>1.872023287304431</v>
       </c>
       <c r="J25" t="n">
-        <v>4.401065630401017</v>
+        <v>4.401065630401014</v>
       </c>
       <c r="K25" t="n">
-        <v>7.232302784688824</v>
+        <v>7.232302784688819</v>
       </c>
       <c r="L25" t="n">
-        <v>9.254857569702743</v>
+        <v>9.254857569702738</v>
       </c>
       <c r="M25" t="n">
-        <v>9.757949680468654</v>
+        <v>9.757949680468649</v>
       </c>
       <c r="N25" t="n">
-        <v>9.525927447157049</v>
+        <v>9.525927447157043</v>
       </c>
       <c r="O25" t="n">
-        <v>8.798735813485282</v>
+        <v>8.798735813485276</v>
       </c>
       <c r="P25" t="n">
-        <v>7.528838517018786</v>
+        <v>7.528838517018782</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.212577539105538</v>
+        <v>5.212577539105535</v>
       </c>
       <c r="R25" t="n">
-        <v>2.798980404778632</v>
+        <v>2.79898040477863</v>
       </c>
       <c r="S25" t="n">
         <v>1.084845417703323</v>
       </c>
       <c r="T25" t="n">
-        <v>0.2659767064791664</v>
+        <v>0.2659767064791663</v>
       </c>
       <c r="U25" t="n">
-        <v>0.003395447316755321</v>
+        <v>0.003395447316755319</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,46 +32940,46 @@
         <v>0.1387754012208202</v>
       </c>
       <c r="H26" t="n">
-        <v>1.421233577752726</v>
+        <v>1.421233577752725</v>
       </c>
       <c r="I26" t="n">
-        <v>5.350138655565678</v>
+        <v>5.350138655565674</v>
       </c>
       <c r="J26" t="n">
         <v>11.7783887093656</v>
       </c>
       <c r="K26" t="n">
-        <v>17.65275144304293</v>
+        <v>17.65275144304292</v>
       </c>
       <c r="L26" t="n">
-        <v>21.89979912815461</v>
+        <v>21.89979912815459</v>
       </c>
       <c r="M26" t="n">
-        <v>24.36774616961537</v>
+        <v>24.36774616961536</v>
       </c>
       <c r="N26" t="n">
-        <v>24.76204177833403</v>
+        <v>24.76204177833401</v>
       </c>
       <c r="O26" t="n">
-        <v>23.38209388244449</v>
+        <v>23.38209388244448</v>
       </c>
       <c r="P26" t="n">
-        <v>19.95607616480549</v>
+        <v>19.95607616480548</v>
       </c>
       <c r="Q26" t="n">
-        <v>14.98618210858486</v>
+        <v>14.98618210858485</v>
       </c>
       <c r="R26" t="n">
-        <v>8.717350296937356</v>
+        <v>8.717350296937351</v>
       </c>
       <c r="S26" t="n">
-        <v>3.162344455319444</v>
+        <v>3.162344455319442</v>
       </c>
       <c r="T26" t="n">
-        <v>0.6074893188441409</v>
+        <v>0.6074893188441405</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01110203209766562</v>
+        <v>0.01110203209766561</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.07425138566263044</v>
+        <v>0.07425138566263038</v>
       </c>
       <c r="H27" t="n">
-        <v>0.7171120667943519</v>
+        <v>0.7171120667943515</v>
       </c>
       <c r="I27" t="n">
-        <v>2.556462181805478</v>
+        <v>2.556462181805476</v>
       </c>
       <c r="J27" t="n">
-        <v>7.015127625257555</v>
+        <v>7.01512762525755</v>
       </c>
       <c r="K27" t="n">
         <v>11.98997046465379</v>
@@ -33034,31 +33034,31 @@
         <v>16.12199494398473</v>
       </c>
       <c r="M27" t="n">
-        <v>18.81360767425508</v>
+        <v>18.81360767425507</v>
       </c>
       <c r="N27" t="n">
-        <v>19.3115478877558</v>
+        <v>19.31154788775579</v>
       </c>
       <c r="O27" t="n">
-        <v>17.66629350017856</v>
+        <v>17.66629350017855</v>
       </c>
       <c r="P27" t="n">
-        <v>14.17875802184037</v>
+        <v>14.17875802184036</v>
       </c>
       <c r="Q27" t="n">
-        <v>9.478124247040334</v>
+        <v>9.478124247040329</v>
       </c>
       <c r="R27" t="n">
-        <v>4.610099190527179</v>
+        <v>4.610099190527176</v>
       </c>
       <c r="S27" t="n">
-        <v>1.379186922286139</v>
+        <v>1.379186922286138</v>
       </c>
       <c r="T27" t="n">
-        <v>0.2992851904559533</v>
+        <v>0.2992851904559531</v>
       </c>
       <c r="U27" t="n">
-        <v>0.004884959583067793</v>
+        <v>0.004884959583067791</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.06224986747384748</v>
+        <v>0.06224986747384744</v>
       </c>
       <c r="H28" t="n">
-        <v>0.5534579126311171</v>
+        <v>0.5534579126311168</v>
       </c>
       <c r="I28" t="n">
-        <v>1.872023287304432</v>
+        <v>1.872023287304431</v>
       </c>
       <c r="J28" t="n">
-        <v>4.401065630401017</v>
+        <v>4.401065630401014</v>
       </c>
       <c r="K28" t="n">
-        <v>7.232302784688824</v>
+        <v>7.232302784688819</v>
       </c>
       <c r="L28" t="n">
-        <v>9.254857569702743</v>
+        <v>9.254857569702738</v>
       </c>
       <c r="M28" t="n">
-        <v>9.757949680468654</v>
+        <v>9.757949680468649</v>
       </c>
       <c r="N28" t="n">
-        <v>9.525927447157049</v>
+        <v>9.525927447157043</v>
       </c>
       <c r="O28" t="n">
-        <v>8.798735813485282</v>
+        <v>8.798735813485276</v>
       </c>
       <c r="P28" t="n">
-        <v>7.528838517018786</v>
+        <v>7.528838517018782</v>
       </c>
       <c r="Q28" t="n">
-        <v>5.212577539105538</v>
+        <v>5.212577539105535</v>
       </c>
       <c r="R28" t="n">
-        <v>2.798980404778632</v>
+        <v>2.79898040477863</v>
       </c>
       <c r="S28" t="n">
         <v>1.084845417703323</v>
       </c>
       <c r="T28" t="n">
-        <v>0.2659767064791664</v>
+        <v>0.2659767064791663</v>
       </c>
       <c r="U28" t="n">
-        <v>0.003395447316755321</v>
+        <v>0.003395447316755319</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,46 +33177,46 @@
         <v>0.1387754012208202</v>
       </c>
       <c r="H29" t="n">
-        <v>1.421233577752726</v>
+        <v>1.421233577752725</v>
       </c>
       <c r="I29" t="n">
-        <v>5.350138655565678</v>
+        <v>5.350138655565674</v>
       </c>
       <c r="J29" t="n">
         <v>11.7783887093656</v>
       </c>
       <c r="K29" t="n">
-        <v>17.65275144304293</v>
+        <v>17.65275144304292</v>
       </c>
       <c r="L29" t="n">
-        <v>21.89979912815461</v>
+        <v>21.89979912815459</v>
       </c>
       <c r="M29" t="n">
-        <v>24.36774616961537</v>
+        <v>24.36774616961536</v>
       </c>
       <c r="N29" t="n">
-        <v>24.76204177833403</v>
+        <v>24.76204177833401</v>
       </c>
       <c r="O29" t="n">
-        <v>23.38209388244449</v>
+        <v>23.38209388244448</v>
       </c>
       <c r="P29" t="n">
-        <v>19.95607616480549</v>
+        <v>19.95607616480548</v>
       </c>
       <c r="Q29" t="n">
-        <v>14.98618210858486</v>
+        <v>14.98618210858485</v>
       </c>
       <c r="R29" t="n">
-        <v>8.717350296937356</v>
+        <v>8.717350296937351</v>
       </c>
       <c r="S29" t="n">
-        <v>3.162344455319444</v>
+        <v>3.162344455319442</v>
       </c>
       <c r="T29" t="n">
-        <v>0.6074893188441409</v>
+        <v>0.6074893188441405</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01110203209766562</v>
+        <v>0.01110203209766561</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.07425138566263044</v>
+        <v>0.07425138566263038</v>
       </c>
       <c r="H30" t="n">
-        <v>0.7171120667943519</v>
+        <v>0.7171120667943515</v>
       </c>
       <c r="I30" t="n">
-        <v>2.556462181805478</v>
+        <v>2.556462181805476</v>
       </c>
       <c r="J30" t="n">
-        <v>7.015127625257555</v>
+        <v>7.01512762525755</v>
       </c>
       <c r="K30" t="n">
         <v>11.98997046465379</v>
@@ -33271,31 +33271,31 @@
         <v>16.12199494398473</v>
       </c>
       <c r="M30" t="n">
-        <v>18.81360767425508</v>
+        <v>18.81360767425507</v>
       </c>
       <c r="N30" t="n">
-        <v>19.3115478877558</v>
+        <v>19.31154788775579</v>
       </c>
       <c r="O30" t="n">
-        <v>17.66629350017856</v>
+        <v>17.66629350017855</v>
       </c>
       <c r="P30" t="n">
-        <v>14.17875802184037</v>
+        <v>14.17875802184036</v>
       </c>
       <c r="Q30" t="n">
-        <v>9.478124247040334</v>
+        <v>9.478124247040329</v>
       </c>
       <c r="R30" t="n">
-        <v>4.610099190527179</v>
+        <v>4.610099190527176</v>
       </c>
       <c r="S30" t="n">
-        <v>1.379186922286139</v>
+        <v>1.379186922286138</v>
       </c>
       <c r="T30" t="n">
-        <v>0.2992851904559533</v>
+        <v>0.2992851904559531</v>
       </c>
       <c r="U30" t="n">
-        <v>0.004884959583067793</v>
+        <v>0.004884959583067791</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.06224986747384748</v>
+        <v>0.06224986747384744</v>
       </c>
       <c r="H31" t="n">
-        <v>0.5534579126311171</v>
+        <v>0.5534579126311168</v>
       </c>
       <c r="I31" t="n">
-        <v>1.872023287304432</v>
+        <v>1.872023287304431</v>
       </c>
       <c r="J31" t="n">
-        <v>4.401065630401017</v>
+        <v>4.401065630401014</v>
       </c>
       <c r="K31" t="n">
-        <v>7.232302784688824</v>
+        <v>7.232302784688819</v>
       </c>
       <c r="L31" t="n">
-        <v>9.254857569702743</v>
+        <v>9.254857569702738</v>
       </c>
       <c r="M31" t="n">
-        <v>9.757949680468654</v>
+        <v>9.757949680468649</v>
       </c>
       <c r="N31" t="n">
-        <v>9.525927447157049</v>
+        <v>9.525927447157043</v>
       </c>
       <c r="O31" t="n">
-        <v>8.798735813485282</v>
+        <v>8.798735813485276</v>
       </c>
       <c r="P31" t="n">
-        <v>7.528838517018786</v>
+        <v>7.528838517018782</v>
       </c>
       <c r="Q31" t="n">
-        <v>5.212577539105538</v>
+        <v>5.212577539105535</v>
       </c>
       <c r="R31" t="n">
-        <v>2.798980404778632</v>
+        <v>2.79898040477863</v>
       </c>
       <c r="S31" t="n">
         <v>1.084845417703323</v>
       </c>
       <c r="T31" t="n">
-        <v>0.2659767064791664</v>
+        <v>0.2659767064791663</v>
       </c>
       <c r="U31" t="n">
-        <v>0.003395447316755321</v>
+        <v>0.003395447316755319</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,46 +33414,46 @@
         <v>0.1387754012208202</v>
       </c>
       <c r="H32" t="n">
-        <v>1.421233577752726</v>
+        <v>1.421233577752725</v>
       </c>
       <c r="I32" t="n">
-        <v>5.350138655565678</v>
+        <v>5.350138655565674</v>
       </c>
       <c r="J32" t="n">
         <v>11.7783887093656</v>
       </c>
       <c r="K32" t="n">
-        <v>17.65275144304293</v>
+        <v>17.65275144304292</v>
       </c>
       <c r="L32" t="n">
-        <v>21.89979912815461</v>
+        <v>21.89979912815459</v>
       </c>
       <c r="M32" t="n">
-        <v>24.36774616961537</v>
+        <v>24.36774616961536</v>
       </c>
       <c r="N32" t="n">
-        <v>24.76204177833403</v>
+        <v>24.76204177833401</v>
       </c>
       <c r="O32" t="n">
-        <v>23.38209388244449</v>
+        <v>23.38209388244448</v>
       </c>
       <c r="P32" t="n">
-        <v>19.95607616480549</v>
+        <v>19.95607616480548</v>
       </c>
       <c r="Q32" t="n">
-        <v>14.98618210858486</v>
+        <v>14.98618210858485</v>
       </c>
       <c r="R32" t="n">
-        <v>8.717350296937356</v>
+        <v>8.717350296937351</v>
       </c>
       <c r="S32" t="n">
-        <v>3.162344455319444</v>
+        <v>3.162344455319442</v>
       </c>
       <c r="T32" t="n">
-        <v>0.6074893188441409</v>
+        <v>0.6074893188441405</v>
       </c>
       <c r="U32" t="n">
-        <v>0.01110203209766562</v>
+        <v>0.01110203209766561</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.07425138566263044</v>
+        <v>0.07425138566263038</v>
       </c>
       <c r="H33" t="n">
-        <v>0.7171120667943519</v>
+        <v>0.7171120667943515</v>
       </c>
       <c r="I33" t="n">
-        <v>2.556462181805478</v>
+        <v>2.556462181805476</v>
       </c>
       <c r="J33" t="n">
-        <v>7.015127625257555</v>
+        <v>7.01512762525755</v>
       </c>
       <c r="K33" t="n">
         <v>11.98997046465379</v>
@@ -33508,31 +33508,31 @@
         <v>16.12199494398473</v>
       </c>
       <c r="M33" t="n">
-        <v>18.81360767425508</v>
+        <v>18.81360767425507</v>
       </c>
       <c r="N33" t="n">
-        <v>19.3115478877558</v>
+        <v>19.31154788775579</v>
       </c>
       <c r="O33" t="n">
-        <v>17.66629350017856</v>
+        <v>17.66629350017855</v>
       </c>
       <c r="P33" t="n">
-        <v>14.17875802184037</v>
+        <v>14.17875802184036</v>
       </c>
       <c r="Q33" t="n">
-        <v>9.478124247040334</v>
+        <v>9.478124247040329</v>
       </c>
       <c r="R33" t="n">
-        <v>4.610099190527179</v>
+        <v>4.610099190527176</v>
       </c>
       <c r="S33" t="n">
-        <v>1.379186922286139</v>
+        <v>1.379186922286138</v>
       </c>
       <c r="T33" t="n">
-        <v>0.2992851904559533</v>
+        <v>0.2992851904559531</v>
       </c>
       <c r="U33" t="n">
-        <v>0.004884959583067793</v>
+        <v>0.004884959583067791</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.06224986747384748</v>
+        <v>0.06224986747384744</v>
       </c>
       <c r="H34" t="n">
-        <v>0.5534579126311171</v>
+        <v>0.5534579126311168</v>
       </c>
       <c r="I34" t="n">
-        <v>1.872023287304432</v>
+        <v>1.872023287304431</v>
       </c>
       <c r="J34" t="n">
-        <v>4.401065630401017</v>
+        <v>4.401065630401014</v>
       </c>
       <c r="K34" t="n">
-        <v>7.232302784688824</v>
+        <v>7.232302784688819</v>
       </c>
       <c r="L34" t="n">
-        <v>9.254857569702743</v>
+        <v>9.254857569702738</v>
       </c>
       <c r="M34" t="n">
-        <v>9.757949680468654</v>
+        <v>9.757949680468649</v>
       </c>
       <c r="N34" t="n">
-        <v>9.525927447157049</v>
+        <v>9.525927447157043</v>
       </c>
       <c r="O34" t="n">
-        <v>8.798735813485282</v>
+        <v>8.798735813485276</v>
       </c>
       <c r="P34" t="n">
-        <v>7.528838517018786</v>
+        <v>7.528838517018782</v>
       </c>
       <c r="Q34" t="n">
-        <v>5.212577539105538</v>
+        <v>5.212577539105535</v>
       </c>
       <c r="R34" t="n">
-        <v>2.798980404778632</v>
+        <v>2.79898040477863</v>
       </c>
       <c r="S34" t="n">
         <v>1.084845417703323</v>
       </c>
       <c r="T34" t="n">
-        <v>0.2659767064791664</v>
+        <v>0.2659767064791663</v>
       </c>
       <c r="U34" t="n">
-        <v>0.003395447316755321</v>
+        <v>0.003395447316755319</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,46 +33651,46 @@
         <v>0.1387754012208202</v>
       </c>
       <c r="H35" t="n">
-        <v>1.421233577752726</v>
+        <v>1.421233577752725</v>
       </c>
       <c r="I35" t="n">
-        <v>5.350138655565678</v>
+        <v>5.350138655565674</v>
       </c>
       <c r="J35" t="n">
         <v>11.7783887093656</v>
       </c>
       <c r="K35" t="n">
-        <v>17.65275144304293</v>
+        <v>17.65275144304292</v>
       </c>
       <c r="L35" t="n">
-        <v>21.89979912815461</v>
+        <v>21.89979912815459</v>
       </c>
       <c r="M35" t="n">
-        <v>24.36774616961537</v>
+        <v>24.36774616961536</v>
       </c>
       <c r="N35" t="n">
-        <v>24.76204177833403</v>
+        <v>24.76204177833401</v>
       </c>
       <c r="O35" t="n">
-        <v>23.38209388244449</v>
+        <v>23.38209388244448</v>
       </c>
       <c r="P35" t="n">
-        <v>19.95607616480549</v>
+        <v>19.95607616480548</v>
       </c>
       <c r="Q35" t="n">
-        <v>14.98618210858486</v>
+        <v>14.98618210858485</v>
       </c>
       <c r="R35" t="n">
-        <v>8.717350296937356</v>
+        <v>8.717350296937351</v>
       </c>
       <c r="S35" t="n">
-        <v>3.162344455319444</v>
+        <v>3.162344455319442</v>
       </c>
       <c r="T35" t="n">
-        <v>0.6074893188441409</v>
+        <v>0.6074893188441405</v>
       </c>
       <c r="U35" t="n">
-        <v>0.01110203209766562</v>
+        <v>0.01110203209766561</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.07425138566263044</v>
+        <v>0.07425138566263038</v>
       </c>
       <c r="H36" t="n">
-        <v>0.7171120667943519</v>
+        <v>0.7171120667943515</v>
       </c>
       <c r="I36" t="n">
-        <v>2.556462181805478</v>
+        <v>2.556462181805476</v>
       </c>
       <c r="J36" t="n">
-        <v>7.015127625257555</v>
+        <v>7.01512762525755</v>
       </c>
       <c r="K36" t="n">
         <v>11.98997046465379</v>
@@ -33745,31 +33745,31 @@
         <v>16.12199494398473</v>
       </c>
       <c r="M36" t="n">
-        <v>18.81360767425508</v>
+        <v>18.81360767425507</v>
       </c>
       <c r="N36" t="n">
-        <v>19.3115478877558</v>
+        <v>19.31154788775579</v>
       </c>
       <c r="O36" t="n">
-        <v>17.66629350017856</v>
+        <v>17.66629350017855</v>
       </c>
       <c r="P36" t="n">
-        <v>14.17875802184037</v>
+        <v>14.17875802184036</v>
       </c>
       <c r="Q36" t="n">
-        <v>9.478124247040334</v>
+        <v>9.478124247040329</v>
       </c>
       <c r="R36" t="n">
-        <v>4.610099190527179</v>
+        <v>4.610099190527176</v>
       </c>
       <c r="S36" t="n">
-        <v>1.379186922286139</v>
+        <v>1.379186922286138</v>
       </c>
       <c r="T36" t="n">
-        <v>0.2992851904559533</v>
+        <v>0.2992851904559531</v>
       </c>
       <c r="U36" t="n">
-        <v>0.004884959583067793</v>
+        <v>0.004884959583067791</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.06224986747384748</v>
+        <v>0.06224986747384744</v>
       </c>
       <c r="H37" t="n">
-        <v>0.5534579126311171</v>
+        <v>0.5534579126311168</v>
       </c>
       <c r="I37" t="n">
-        <v>1.872023287304432</v>
+        <v>1.872023287304431</v>
       </c>
       <c r="J37" t="n">
-        <v>4.401065630401017</v>
+        <v>4.401065630401014</v>
       </c>
       <c r="K37" t="n">
-        <v>7.232302784688824</v>
+        <v>7.232302784688819</v>
       </c>
       <c r="L37" t="n">
-        <v>9.254857569702743</v>
+        <v>9.254857569702738</v>
       </c>
       <c r="M37" t="n">
-        <v>9.757949680468654</v>
+        <v>9.757949680468649</v>
       </c>
       <c r="N37" t="n">
-        <v>9.525927447157049</v>
+        <v>9.525927447157043</v>
       </c>
       <c r="O37" t="n">
-        <v>8.798735813485282</v>
+        <v>8.798735813485276</v>
       </c>
       <c r="P37" t="n">
-        <v>7.528838517018786</v>
+        <v>7.528838517018782</v>
       </c>
       <c r="Q37" t="n">
-        <v>5.212577539105538</v>
+        <v>5.212577539105535</v>
       </c>
       <c r="R37" t="n">
-        <v>2.798980404778632</v>
+        <v>2.79898040477863</v>
       </c>
       <c r="S37" t="n">
         <v>1.084845417703323</v>
       </c>
       <c r="T37" t="n">
-        <v>0.2659767064791664</v>
+        <v>0.2659767064791663</v>
       </c>
       <c r="U37" t="n">
-        <v>0.003395447316755321</v>
+        <v>0.003395447316755319</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,46 +33888,46 @@
         <v>0.1387754012208202</v>
       </c>
       <c r="H38" t="n">
-        <v>1.421233577752726</v>
+        <v>1.421233577752725</v>
       </c>
       <c r="I38" t="n">
-        <v>5.350138655565678</v>
+        <v>5.350138655565674</v>
       </c>
       <c r="J38" t="n">
         <v>11.7783887093656</v>
       </c>
       <c r="K38" t="n">
-        <v>17.65275144304293</v>
+        <v>17.65275144304292</v>
       </c>
       <c r="L38" t="n">
-        <v>21.89979912815461</v>
+        <v>21.89979912815459</v>
       </c>
       <c r="M38" t="n">
-        <v>24.36774616961537</v>
+        <v>24.36774616961536</v>
       </c>
       <c r="N38" t="n">
-        <v>24.76204177833403</v>
+        <v>24.76204177833401</v>
       </c>
       <c r="O38" t="n">
-        <v>23.38209388244449</v>
+        <v>23.38209388244448</v>
       </c>
       <c r="P38" t="n">
-        <v>19.95607616480549</v>
+        <v>19.95607616480548</v>
       </c>
       <c r="Q38" t="n">
-        <v>14.98618210858486</v>
+        <v>14.98618210858485</v>
       </c>
       <c r="R38" t="n">
-        <v>8.717350296937356</v>
+        <v>8.717350296937351</v>
       </c>
       <c r="S38" t="n">
-        <v>3.162344455319444</v>
+        <v>3.162344455319442</v>
       </c>
       <c r="T38" t="n">
-        <v>0.6074893188441409</v>
+        <v>0.6074893188441405</v>
       </c>
       <c r="U38" t="n">
-        <v>0.01110203209766562</v>
+        <v>0.01110203209766561</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.07425138566263044</v>
+        <v>0.07425138566263038</v>
       </c>
       <c r="H39" t="n">
-        <v>0.7171120667943519</v>
+        <v>0.7171120667943515</v>
       </c>
       <c r="I39" t="n">
-        <v>2.556462181805478</v>
+        <v>2.556462181805476</v>
       </c>
       <c r="J39" t="n">
-        <v>7.015127625257555</v>
+        <v>7.01512762525755</v>
       </c>
       <c r="K39" t="n">
         <v>11.98997046465379</v>
@@ -33982,31 +33982,31 @@
         <v>16.12199494398473</v>
       </c>
       <c r="M39" t="n">
-        <v>18.81360767425508</v>
+        <v>18.81360767425507</v>
       </c>
       <c r="N39" t="n">
-        <v>19.3115478877558</v>
+        <v>19.31154788775579</v>
       </c>
       <c r="O39" t="n">
-        <v>17.66629350017856</v>
+        <v>17.66629350017855</v>
       </c>
       <c r="P39" t="n">
-        <v>14.17875802184037</v>
+        <v>14.17875802184036</v>
       </c>
       <c r="Q39" t="n">
-        <v>9.478124247040334</v>
+        <v>9.478124247040329</v>
       </c>
       <c r="R39" t="n">
-        <v>4.610099190527179</v>
+        <v>4.610099190527176</v>
       </c>
       <c r="S39" t="n">
-        <v>1.379186922286139</v>
+        <v>1.379186922286138</v>
       </c>
       <c r="T39" t="n">
-        <v>0.2992851904559533</v>
+        <v>0.2992851904559531</v>
       </c>
       <c r="U39" t="n">
-        <v>0.004884959583067793</v>
+        <v>0.004884959583067791</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06224986747384748</v>
+        <v>0.06224986747384744</v>
       </c>
       <c r="H40" t="n">
-        <v>0.5534579126311171</v>
+        <v>0.5534579126311168</v>
       </c>
       <c r="I40" t="n">
-        <v>1.872023287304432</v>
+        <v>1.872023287304431</v>
       </c>
       <c r="J40" t="n">
-        <v>4.401065630401017</v>
+        <v>4.401065630401014</v>
       </c>
       <c r="K40" t="n">
-        <v>7.232302784688824</v>
+        <v>7.232302784688819</v>
       </c>
       <c r="L40" t="n">
-        <v>9.254857569702743</v>
+        <v>9.254857569702738</v>
       </c>
       <c r="M40" t="n">
-        <v>9.757949680468654</v>
+        <v>9.757949680468649</v>
       </c>
       <c r="N40" t="n">
-        <v>9.525927447157049</v>
+        <v>9.525927447157043</v>
       </c>
       <c r="O40" t="n">
-        <v>8.798735813485282</v>
+        <v>8.798735813485276</v>
       </c>
       <c r="P40" t="n">
-        <v>7.528838517018786</v>
+        <v>7.528838517018782</v>
       </c>
       <c r="Q40" t="n">
-        <v>5.212577539105538</v>
+        <v>5.212577539105535</v>
       </c>
       <c r="R40" t="n">
-        <v>2.798980404778632</v>
+        <v>2.79898040477863</v>
       </c>
       <c r="S40" t="n">
         <v>1.084845417703323</v>
       </c>
       <c r="T40" t="n">
-        <v>0.2659767064791664</v>
+        <v>0.2659767064791663</v>
       </c>
       <c r="U40" t="n">
-        <v>0.003395447316755321</v>
+        <v>0.003395447316755319</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,46 +34125,46 @@
         <v>0.1387754012208202</v>
       </c>
       <c r="H41" t="n">
-        <v>1.421233577752726</v>
+        <v>1.421233577752725</v>
       </c>
       <c r="I41" t="n">
-        <v>5.350138655565678</v>
+        <v>5.350138655565674</v>
       </c>
       <c r="J41" t="n">
         <v>11.7783887093656</v>
       </c>
       <c r="K41" t="n">
-        <v>17.65275144304293</v>
+        <v>17.65275144304292</v>
       </c>
       <c r="L41" t="n">
-        <v>21.89979912815461</v>
+        <v>21.89979912815459</v>
       </c>
       <c r="M41" t="n">
-        <v>24.36774616961537</v>
+        <v>24.36774616961536</v>
       </c>
       <c r="N41" t="n">
-        <v>24.76204177833403</v>
+        <v>24.76204177833401</v>
       </c>
       <c r="O41" t="n">
-        <v>23.38209388244449</v>
+        <v>23.38209388244448</v>
       </c>
       <c r="P41" t="n">
-        <v>19.95607616480549</v>
+        <v>19.95607616480548</v>
       </c>
       <c r="Q41" t="n">
-        <v>14.98618210858486</v>
+        <v>14.98618210858485</v>
       </c>
       <c r="R41" t="n">
-        <v>8.717350296937356</v>
+        <v>8.717350296937351</v>
       </c>
       <c r="S41" t="n">
-        <v>3.162344455319444</v>
+        <v>3.162344455319442</v>
       </c>
       <c r="T41" t="n">
-        <v>0.6074893188441409</v>
+        <v>0.6074893188441405</v>
       </c>
       <c r="U41" t="n">
-        <v>0.01110203209766562</v>
+        <v>0.01110203209766561</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.07425138566263044</v>
+        <v>0.07425138566263038</v>
       </c>
       <c r="H42" t="n">
-        <v>0.7171120667943519</v>
+        <v>0.7171120667943515</v>
       </c>
       <c r="I42" t="n">
-        <v>2.556462181805478</v>
+        <v>2.556462181805476</v>
       </c>
       <c r="J42" t="n">
-        <v>7.015127625257555</v>
+        <v>7.01512762525755</v>
       </c>
       <c r="K42" t="n">
         <v>11.98997046465379</v>
@@ -34219,31 +34219,31 @@
         <v>16.12199494398473</v>
       </c>
       <c r="M42" t="n">
-        <v>18.81360767425508</v>
+        <v>18.81360767425507</v>
       </c>
       <c r="N42" t="n">
-        <v>19.3115478877558</v>
+        <v>19.31154788775579</v>
       </c>
       <c r="O42" t="n">
-        <v>17.66629350017856</v>
+        <v>17.66629350017855</v>
       </c>
       <c r="P42" t="n">
-        <v>14.17875802184037</v>
+        <v>14.17875802184036</v>
       </c>
       <c r="Q42" t="n">
-        <v>9.478124247040334</v>
+        <v>9.478124247040329</v>
       </c>
       <c r="R42" t="n">
-        <v>4.610099190527179</v>
+        <v>4.610099190527176</v>
       </c>
       <c r="S42" t="n">
-        <v>1.379186922286139</v>
+        <v>1.379186922286138</v>
       </c>
       <c r="T42" t="n">
-        <v>0.2992851904559533</v>
+        <v>0.2992851904559531</v>
       </c>
       <c r="U42" t="n">
-        <v>0.004884959583067793</v>
+        <v>0.004884959583067791</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.06224986747384748</v>
+        <v>0.06224986747384744</v>
       </c>
       <c r="H43" t="n">
-        <v>0.5534579126311171</v>
+        <v>0.5534579126311168</v>
       </c>
       <c r="I43" t="n">
-        <v>1.872023287304432</v>
+        <v>1.872023287304431</v>
       </c>
       <c r="J43" t="n">
-        <v>4.401065630401017</v>
+        <v>4.401065630401014</v>
       </c>
       <c r="K43" t="n">
-        <v>7.232302784688824</v>
+        <v>7.232302784688819</v>
       </c>
       <c r="L43" t="n">
-        <v>9.254857569702743</v>
+        <v>9.254857569702738</v>
       </c>
       <c r="M43" t="n">
-        <v>9.757949680468654</v>
+        <v>9.757949680468649</v>
       </c>
       <c r="N43" t="n">
-        <v>9.525927447157049</v>
+        <v>9.525927447157043</v>
       </c>
       <c r="O43" t="n">
-        <v>8.798735813485282</v>
+        <v>8.798735813485276</v>
       </c>
       <c r="P43" t="n">
-        <v>7.528838517018786</v>
+        <v>7.528838517018782</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.212577539105538</v>
+        <v>5.212577539105535</v>
       </c>
       <c r="R43" t="n">
-        <v>2.798980404778632</v>
+        <v>2.79898040477863</v>
       </c>
       <c r="S43" t="n">
         <v>1.084845417703323</v>
       </c>
       <c r="T43" t="n">
-        <v>0.2659767064791664</v>
+        <v>0.2659767064791663</v>
       </c>
       <c r="U43" t="n">
-        <v>0.003395447316755321</v>
+        <v>0.003395447316755319</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,46 +34362,46 @@
         <v>0.1387754012208202</v>
       </c>
       <c r="H44" t="n">
-        <v>1.421233577752726</v>
+        <v>1.421233577752725</v>
       </c>
       <c r="I44" t="n">
-        <v>5.350138655565678</v>
+        <v>5.350138655565674</v>
       </c>
       <c r="J44" t="n">
         <v>11.7783887093656</v>
       </c>
       <c r="K44" t="n">
-        <v>17.65275144304293</v>
+        <v>17.65275144304292</v>
       </c>
       <c r="L44" t="n">
-        <v>21.89979912815461</v>
+        <v>21.89979912815459</v>
       </c>
       <c r="M44" t="n">
-        <v>24.36774616961537</v>
+        <v>24.36774616961536</v>
       </c>
       <c r="N44" t="n">
-        <v>24.76204177833403</v>
+        <v>24.76204177833401</v>
       </c>
       <c r="O44" t="n">
-        <v>23.38209388244449</v>
+        <v>23.38209388244448</v>
       </c>
       <c r="P44" t="n">
-        <v>19.95607616480549</v>
+        <v>19.95607616480548</v>
       </c>
       <c r="Q44" t="n">
-        <v>14.98618210858486</v>
+        <v>14.98618210858485</v>
       </c>
       <c r="R44" t="n">
-        <v>8.717350296937356</v>
+        <v>8.717350296937351</v>
       </c>
       <c r="S44" t="n">
-        <v>3.162344455319444</v>
+        <v>3.162344455319442</v>
       </c>
       <c r="T44" t="n">
-        <v>0.6074893188441409</v>
+        <v>0.6074893188441405</v>
       </c>
       <c r="U44" t="n">
-        <v>0.01110203209766562</v>
+        <v>0.01110203209766561</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.07425138566263044</v>
+        <v>0.07425138566263038</v>
       </c>
       <c r="H45" t="n">
-        <v>0.7171120667943519</v>
+        <v>0.7171120667943515</v>
       </c>
       <c r="I45" t="n">
-        <v>2.556462181805478</v>
+        <v>2.556462181805476</v>
       </c>
       <c r="J45" t="n">
-        <v>7.015127625257555</v>
+        <v>7.01512762525755</v>
       </c>
       <c r="K45" t="n">
         <v>11.98997046465379</v>
@@ -34456,31 +34456,31 @@
         <v>16.12199494398473</v>
       </c>
       <c r="M45" t="n">
-        <v>18.81360767425508</v>
+        <v>18.81360767425507</v>
       </c>
       <c r="N45" t="n">
-        <v>19.3115478877558</v>
+        <v>19.31154788775579</v>
       </c>
       <c r="O45" t="n">
-        <v>17.66629350017856</v>
+        <v>17.66629350017855</v>
       </c>
       <c r="P45" t="n">
-        <v>14.17875802184037</v>
+        <v>14.17875802184036</v>
       </c>
       <c r="Q45" t="n">
-        <v>9.478124247040334</v>
+        <v>9.478124247040329</v>
       </c>
       <c r="R45" t="n">
-        <v>4.610099190527179</v>
+        <v>4.610099190527176</v>
       </c>
       <c r="S45" t="n">
-        <v>1.379186922286139</v>
+        <v>1.379186922286138</v>
       </c>
       <c r="T45" t="n">
-        <v>0.2992851904559533</v>
+        <v>0.2992851904559531</v>
       </c>
       <c r="U45" t="n">
-        <v>0.004884959583067793</v>
+        <v>0.004884959583067791</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06224986747384748</v>
+        <v>0.06224986747384744</v>
       </c>
       <c r="H46" t="n">
-        <v>0.5534579126311171</v>
+        <v>0.5534579126311168</v>
       </c>
       <c r="I46" t="n">
-        <v>1.872023287304432</v>
+        <v>1.872023287304431</v>
       </c>
       <c r="J46" t="n">
-        <v>4.401065630401017</v>
+        <v>4.401065630401014</v>
       </c>
       <c r="K46" t="n">
-        <v>7.232302784688824</v>
+        <v>7.232302784688819</v>
       </c>
       <c r="L46" t="n">
-        <v>9.254857569702743</v>
+        <v>9.254857569702738</v>
       </c>
       <c r="M46" t="n">
-        <v>9.757949680468654</v>
+        <v>9.757949680468649</v>
       </c>
       <c r="N46" t="n">
-        <v>9.525927447157049</v>
+        <v>9.525927447157043</v>
       </c>
       <c r="O46" t="n">
-        <v>8.798735813485282</v>
+        <v>8.798735813485276</v>
       </c>
       <c r="P46" t="n">
-        <v>7.528838517018786</v>
+        <v>7.528838517018782</v>
       </c>
       <c r="Q46" t="n">
-        <v>5.212577539105538</v>
+        <v>5.212577539105535</v>
       </c>
       <c r="R46" t="n">
-        <v>2.798980404778632</v>
+        <v>2.79898040477863</v>
       </c>
       <c r="S46" t="n">
         <v>1.084845417703323</v>
       </c>
       <c r="T46" t="n">
-        <v>0.2659767064791664</v>
+        <v>0.2659767064791663</v>
       </c>
       <c r="U46" t="n">
-        <v>0.003395447316755321</v>
+        <v>0.003395447316755319</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,25 +34701,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34774,22 +34774,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>407.152590549595</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34801,7 +34801,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34938,10 +34938,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>262.4693064538401</v>
       </c>
       <c r="K6" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -35096,22 +35096,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N7" t="n">
-        <v>298.8178948332412</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>152.0558298092333</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35172,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P8" t="n">
         <v>424.2958575201044</v>
@@ -35257,7 +35257,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35269,10 +35269,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35330,22 +35330,22 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>223.0854642319581</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>312.7888501519116</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>4.93751717643428</v>
+        <v>4.937517176434277</v>
       </c>
       <c r="J11" t="n">
-        <v>451.4295881567574</v>
+        <v>11.7783887093656</v>
       </c>
       <c r="K11" t="n">
-        <v>825.528404940628</v>
+        <v>17.65275144304292</v>
       </c>
       <c r="L11" t="n">
         <v>1107.818956959326</v>
       </c>
       <c r="M11" t="n">
-        <v>24.3677461696152</v>
+        <v>1193.10293325098</v>
       </c>
       <c r="N11" t="n">
-        <v>24.76204177833415</v>
+        <v>1161.864045249493</v>
       </c>
       <c r="O11" t="n">
         <v>1013.462565165582</v>
       </c>
       <c r="P11" t="n">
-        <v>856.6327174106605</v>
+        <v>19.95607616480538</v>
       </c>
       <c r="Q11" t="n">
-        <v>567.0051578243374</v>
+        <v>345.371461462646</v>
       </c>
       <c r="R11" t="n">
         <v>179.5800419666912</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>2.556462181805472</v>
+        <v>28.88340476812628</v>
       </c>
       <c r="J12" t="n">
-        <v>328.9777732763989</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K12" t="n">
-        <v>699.5995866973582</v>
+        <v>549.0422563676814</v>
       </c>
       <c r="L12" t="n">
-        <v>16.12199494398465</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M12" t="n">
         <v>18.81360767425508</v>
@@ -35512,7 +35512,7 @@
         <v>555.679072360248</v>
       </c>
       <c r="R12" t="n">
-        <v>4.61009919052708</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35585,7 +35585,7 @@
         <v>432.7070683647798</v>
       </c>
       <c r="P13" t="n">
-        <v>358.5459031335258</v>
+        <v>358.5459031335254</v>
       </c>
       <c r="Q13" t="n">
         <v>175.1042693212594</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>4.93751717643428</v>
+        <v>4.937517176434277</v>
       </c>
       <c r="J14" t="n">
         <v>451.4295881567574</v>
       </c>
       <c r="K14" t="n">
-        <v>79.24952301946587</v>
+        <v>860.4308241280712</v>
       </c>
       <c r="L14" t="n">
-        <v>1107.818956959326</v>
+        <v>21.89979912815465</v>
       </c>
       <c r="M14" t="n">
-        <v>1193.10293325098</v>
+        <v>24.36774616961543</v>
       </c>
       <c r="N14" t="n">
-        <v>1161.864045249493</v>
+        <v>1075.778780422062</v>
       </c>
       <c r="O14" t="n">
         <v>1013.462565165582</v>
       </c>
       <c r="P14" t="n">
-        <v>19.95607616480538</v>
+        <v>856.6327174106605</v>
       </c>
       <c r="Q14" t="n">
-        <v>14.98618210858513</v>
+        <v>567.0051578243374</v>
       </c>
       <c r="R14" t="n">
-        <v>8.717350296937184</v>
+        <v>179.5800419666912</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,10 +35728,10 @@
         <v>334.8518195103205</v>
       </c>
       <c r="K15" t="n">
-        <v>699.5995866973583</v>
+        <v>11.98997046465377</v>
       </c>
       <c r="L15" t="n">
-        <v>16.12199494398465</v>
+        <v>16.1219949439847</v>
       </c>
       <c r="M15" t="n">
         <v>18.81360767425508</v>
@@ -35740,13 +35740,13 @@
         <v>19.31154788775575</v>
       </c>
       <c r="O15" t="n">
-        <v>17.66629350017865</v>
+        <v>17.66629350017854</v>
       </c>
       <c r="P15" t="n">
-        <v>14.17875802184039</v>
+        <v>551.2310439248682</v>
       </c>
       <c r="Q15" t="n">
-        <v>405.1217420305713</v>
+        <v>555.679072360248</v>
       </c>
       <c r="R15" t="n">
         <v>122.9664406999614</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>91.85529306948183</v>
+        <v>91.85529306948168</v>
       </c>
       <c r="K16" t="n">
-        <v>284.7660952807855</v>
+        <v>284.7660952807854</v>
       </c>
       <c r="L16" t="n">
         <v>431.6890815777442</v>
       </c>
       <c r="M16" t="n">
-        <v>473.8830680450274</v>
+        <v>473.8830680450272</v>
       </c>
       <c r="N16" t="n">
-        <v>456.2519912427579</v>
+        <v>456.2519912427576</v>
       </c>
       <c r="O16" t="n">
         <v>432.7070683647798</v>
       </c>
       <c r="P16" t="n">
-        <v>358.5459031335258</v>
+        <v>358.5459031335254</v>
       </c>
       <c r="Q16" t="n">
         <v>175.1042693212594</v>
@@ -35880,19 +35880,19 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>4.93751717643428</v>
+        <v>4.937517176434277</v>
       </c>
       <c r="J17" t="n">
-        <v>11.7783887093656</v>
+        <v>451.4295881567574</v>
       </c>
       <c r="K17" t="n">
-        <v>17.65275144304293</v>
+        <v>860.4308241280712</v>
       </c>
       <c r="L17" t="n">
-        <v>1107.818956959326</v>
+        <v>21.89979912815465</v>
       </c>
       <c r="M17" t="n">
-        <v>134.7925956434335</v>
+        <v>24.36774616961543</v>
       </c>
       <c r="N17" t="n">
         <v>1161.864045249493</v>
@@ -35901,13 +35901,13 @@
         <v>1013.462565165582</v>
       </c>
       <c r="P17" t="n">
-        <v>856.6327174106605</v>
+        <v>856.63271741066</v>
       </c>
       <c r="Q17" t="n">
         <v>567.0051578243374</v>
       </c>
       <c r="R17" t="n">
-        <v>179.5800419666912</v>
+        <v>93.4947771392608</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,25 +35968,25 @@
         <v>11.98997046465377</v>
       </c>
       <c r="L18" t="n">
-        <v>16.12199494398476</v>
+        <v>16.1219949439847</v>
       </c>
       <c r="M18" t="n">
-        <v>18.81360767425514</v>
+        <v>18.81360767425508</v>
       </c>
       <c r="N18" t="n">
-        <v>1220.921123413425</v>
+        <v>19.31154788775575</v>
       </c>
       <c r="O18" t="n">
-        <v>17.66629350017865</v>
+        <v>17.66629350017854</v>
       </c>
       <c r="P18" t="n">
-        <v>14.17875802184039</v>
+        <v>551.2310439248682</v>
       </c>
       <c r="Q18" t="n">
-        <v>9.478124247040341</v>
+        <v>555.679072360248</v>
       </c>
       <c r="R18" t="n">
-        <v>4.61009919052708</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36059,7 +36059,7 @@
         <v>432.7070683647798</v>
       </c>
       <c r="P19" t="n">
-        <v>358.5459031335258</v>
+        <v>358.5459031335254</v>
       </c>
       <c r="Q19" t="n">
         <v>175.1042693212594</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>4.93751717643428</v>
+        <v>4.937517176434277</v>
       </c>
       <c r="J20" t="n">
-        <v>11.7783887093656</v>
+        <v>451.4295881567574</v>
       </c>
       <c r="K20" t="n">
-        <v>17.65275144304293</v>
+        <v>860.4308241280712</v>
       </c>
       <c r="L20" t="n">
-        <v>1107.818956959326</v>
+        <v>21.89979912815465</v>
       </c>
       <c r="M20" t="n">
-        <v>1193.10293325098</v>
+        <v>24.36774616961543</v>
       </c>
       <c r="N20" t="n">
-        <v>1161.864045249493</v>
+        <v>1075.778780422062</v>
       </c>
       <c r="O20" t="n">
         <v>1013.462565165582</v>
       </c>
       <c r="P20" t="n">
-        <v>350.3413555188663</v>
+        <v>856.6327174106605</v>
       </c>
       <c r="Q20" t="n">
-        <v>14.98618210858513</v>
+        <v>567.0051578243374</v>
       </c>
       <c r="R20" t="n">
         <v>179.5800419666912</v>
@@ -36202,10 +36202,10 @@
         <v>334.8518195103205</v>
       </c>
       <c r="K21" t="n">
-        <v>131.0583066918953</v>
+        <v>549.0422563676814</v>
       </c>
       <c r="L21" t="n">
-        <v>980.3068927329786</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M21" t="n">
         <v>18.81360767425508</v>
@@ -36220,7 +36220,7 @@
         <v>14.17875802184039</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.478124247040341</v>
+        <v>555.679072360248</v>
       </c>
       <c r="R21" t="n">
         <v>122.9664406999614</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>91.8552930694817</v>
+        <v>91.85529306948168</v>
       </c>
       <c r="K22" t="n">
         <v>284.7660952807854</v>
@@ -36296,7 +36296,7 @@
         <v>432.7070683647798</v>
       </c>
       <c r="P22" t="n">
-        <v>358.5459031335258</v>
+        <v>358.5459031335254</v>
       </c>
       <c r="Q22" t="n">
         <v>175.1042693212594</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>4.93751717643428</v>
+        <v>4.937517176434277</v>
       </c>
       <c r="J23" t="n">
         <v>451.4295881567574</v>
       </c>
       <c r="K23" t="n">
-        <v>17.65275144304292</v>
+        <v>860.4308241280712</v>
       </c>
       <c r="L23" t="n">
-        <v>599.9378911875256</v>
+        <v>21.89979912815465</v>
       </c>
       <c r="M23" t="n">
-        <v>1193.10293325098</v>
+        <v>24.36774616961543</v>
       </c>
       <c r="N23" t="n">
-        <v>1161.864045249492</v>
+        <v>1161.864045249493</v>
       </c>
       <c r="O23" t="n">
-        <v>23.38209388244468</v>
+        <v>1013.462565165582</v>
       </c>
       <c r="P23" t="n">
-        <v>856.6327174106605</v>
+        <v>856.63271741066</v>
       </c>
       <c r="Q23" t="n">
         <v>567.0051578243374</v>
       </c>
       <c r="R23" t="n">
-        <v>179.5800419666912</v>
+        <v>93.49477713926171</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>2.556462181805472</v>
+        <v>28.88340476812627</v>
       </c>
       <c r="J24" t="n">
-        <v>198.1418228196375</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K24" t="n">
         <v>11.98997046465377</v>
       </c>
       <c r="L24" t="n">
-        <v>16.12199494398476</v>
+        <v>16.1219949439847</v>
       </c>
       <c r="M24" t="n">
         <v>18.81360767425508</v>
       </c>
       <c r="N24" t="n">
-        <v>1265.601721180995</v>
+        <v>19.31154788775575</v>
       </c>
       <c r="O24" t="n">
-        <v>17.66629350017865</v>
+        <v>17.66629350017854</v>
       </c>
       <c r="P24" t="n">
-        <v>14.17875802184039</v>
+        <v>551.2310439248682</v>
       </c>
       <c r="Q24" t="n">
-        <v>9.478124247040341</v>
+        <v>555.679072360248</v>
       </c>
       <c r="R24" t="n">
         <v>122.9664406999614</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>91.8552930694817</v>
+        <v>91.85529306948169</v>
       </c>
       <c r="K25" t="n">
         <v>284.7660952807854</v>
@@ -36533,7 +36533,7 @@
         <v>432.7070683647798</v>
       </c>
       <c r="P25" t="n">
-        <v>358.5459031335258</v>
+        <v>358.5459031335254</v>
       </c>
       <c r="Q25" t="n">
         <v>175.1042693212594</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>4.93751717643428</v>
+        <v>4.937517176434277</v>
       </c>
       <c r="J26" t="n">
-        <v>451.4295881567575</v>
+        <v>11.7783887093656</v>
       </c>
       <c r="K26" t="n">
         <v>860.4308241280712</v>
       </c>
       <c r="L26" t="n">
-        <v>1072.916537771882</v>
+        <v>1107.818956959326</v>
       </c>
       <c r="M26" t="n">
         <v>24.3677461696152</v>
       </c>
       <c r="N26" t="n">
-        <v>24.76204177833415</v>
+        <v>1161.864045249492</v>
       </c>
       <c r="O26" t="n">
         <v>1013.462565165582</v>
       </c>
       <c r="P26" t="n">
-        <v>856.6327174106605</v>
+        <v>847.161161584957</v>
       </c>
       <c r="Q26" t="n">
-        <v>567.0051578243374</v>
+        <v>14.98618210858513</v>
       </c>
       <c r="R26" t="n">
-        <v>179.5800419666912</v>
+        <v>8.717350296937184</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>2.556462181805472</v>
+        <v>28.88340476812628</v>
       </c>
       <c r="J27" t="n">
-        <v>7.015127625257549</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K27" t="n">
-        <v>11.98997046465379</v>
+        <v>549.0422563676814</v>
       </c>
       <c r="L27" t="n">
-        <v>980.3068927329787</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M27" t="n">
         <v>18.81360767425508</v>
@@ -36691,13 +36691,13 @@
         <v>17.66629350017865</v>
       </c>
       <c r="P27" t="n">
-        <v>605.7670702298999</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q27" t="n">
-        <v>9.478124247040341</v>
+        <v>555.679072360248</v>
       </c>
       <c r="R27" t="n">
-        <v>4.61009919052708</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>91.85529306948169</v>
+        <v>91.85529306948168</v>
       </c>
       <c r="K28" t="n">
         <v>284.7660952807854</v>
@@ -36770,7 +36770,7 @@
         <v>432.7070683647798</v>
       </c>
       <c r="P28" t="n">
-        <v>358.5459031335258</v>
+        <v>358.5459031335254</v>
       </c>
       <c r="Q28" t="n">
         <v>175.1042693212594</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>4.93751717643428</v>
+        <v>4.937517176434277</v>
       </c>
       <c r="J29" t="n">
-        <v>11.7783887093656</v>
+        <v>451.4295881567574</v>
       </c>
       <c r="K29" t="n">
-        <v>17.65275144304293</v>
+        <v>860.4308241280712</v>
       </c>
       <c r="L29" t="n">
-        <v>1107.818956959326</v>
+        <v>1072.916537771883</v>
       </c>
       <c r="M29" t="n">
-        <v>1193.10293325098</v>
+        <v>24.3677461696152</v>
       </c>
       <c r="N29" t="n">
-        <v>1161.864045249493</v>
+        <v>24.76204177833415</v>
       </c>
       <c r="O29" t="n">
         <v>1013.462565165582</v>
       </c>
       <c r="P29" t="n">
-        <v>19.95607616480538</v>
+        <v>856.6327174106605</v>
       </c>
       <c r="Q29" t="n">
-        <v>345.3714614626451</v>
+        <v>567.0051578243374</v>
       </c>
       <c r="R29" t="n">
         <v>179.5800419666912</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>28.88340476812618</v>
+        <v>28.88340476812628</v>
       </c>
       <c r="J30" t="n">
-        <v>334.8518195103206</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K30" t="n">
-        <v>549.0422563676807</v>
+        <v>11.98997046465377</v>
       </c>
       <c r="L30" t="n">
-        <v>16.12199494398465</v>
+        <v>16.1219949439847</v>
       </c>
       <c r="M30" t="n">
-        <v>18.81360767425485</v>
+        <v>18.81360767425508</v>
       </c>
       <c r="N30" t="n">
-        <v>19.31154788775621</v>
+        <v>19.31154788775575</v>
       </c>
       <c r="O30" t="n">
-        <v>17.66629350017865</v>
+        <v>17.66629350017854</v>
       </c>
       <c r="P30" t="n">
-        <v>14.17875802184062</v>
+        <v>551.2310439248682</v>
       </c>
       <c r="Q30" t="n">
         <v>555.679072360248</v>
       </c>
       <c r="R30" t="n">
-        <v>122.9664406999609</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>91.85529306948169</v>
+        <v>91.8552930694817</v>
       </c>
       <c r="K31" t="n">
         <v>284.7660952807854</v>
@@ -37007,7 +37007,7 @@
         <v>432.7070683647798</v>
       </c>
       <c r="P31" t="n">
-        <v>358.5459031335258</v>
+        <v>358.5459031335254</v>
       </c>
       <c r="Q31" t="n">
         <v>175.1042693212594</v>
@@ -37065,25 +37065,25 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>4.93751717643428</v>
+        <v>4.937517176434277</v>
       </c>
       <c r="J32" t="n">
-        <v>11.7783887093656</v>
+        <v>451.4295881567574</v>
       </c>
       <c r="K32" t="n">
-        <v>860.4308241280712</v>
+        <v>825.528404940628</v>
       </c>
       <c r="L32" t="n">
         <v>1107.818956959326</v>
       </c>
       <c r="M32" t="n">
-        <v>1193.10293325098</v>
+        <v>24.3677461696152</v>
       </c>
       <c r="N32" t="n">
-        <v>421.7187979098085</v>
+        <v>24.76204177833415</v>
       </c>
       <c r="O32" t="n">
-        <v>23.38209388244468</v>
+        <v>1013.462565165582</v>
       </c>
       <c r="P32" t="n">
         <v>856.6327174106605</v>
@@ -37092,7 +37092,7 @@
         <v>567.0051578243374</v>
       </c>
       <c r="R32" t="n">
-        <v>8.717350296937184</v>
+        <v>179.5800419666912</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>28.8834047681263</v>
+        <v>2.556462181805472</v>
       </c>
       <c r="J33" t="n">
-        <v>334.8518195103205</v>
+        <v>210.6214317669645</v>
       </c>
       <c r="K33" t="n">
-        <v>549.0422563676814</v>
+        <v>699.5995866973582</v>
       </c>
       <c r="L33" t="n">
         <v>16.12199494398476</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>91.85529306948169</v>
+        <v>91.85529306948168</v>
       </c>
       <c r="K34" t="n">
         <v>284.7660952807854</v>
@@ -37244,7 +37244,7 @@
         <v>432.7070683647798</v>
       </c>
       <c r="P34" t="n">
-        <v>358.5459031335258</v>
+        <v>358.5459031335254</v>
       </c>
       <c r="Q34" t="n">
         <v>175.1042693212594</v>
@@ -37302,25 +37302,25 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>4.93751717643428</v>
+        <v>4.937517176434277</v>
       </c>
       <c r="J35" t="n">
-        <v>11.7783887093656</v>
+        <v>451.4295881567574</v>
       </c>
       <c r="K35" t="n">
         <v>860.4308241280712</v>
       </c>
       <c r="L35" t="n">
-        <v>1107.818956959326</v>
+        <v>21.89979912815465</v>
       </c>
       <c r="M35" t="n">
-        <v>282.0949942415432</v>
+        <v>24.36774616961543</v>
       </c>
       <c r="N35" t="n">
-        <v>1161.864045249492</v>
+        <v>1075.778780422062</v>
       </c>
       <c r="O35" t="n">
-        <v>23.38209388244468</v>
+        <v>1013.462565165582</v>
       </c>
       <c r="P35" t="n">
         <v>856.6327174106605</v>
@@ -37381,19 +37381,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>19.65981454379606</v>
+        <v>28.88340476812628</v>
       </c>
       <c r="J36" t="n">
         <v>334.8518195103205</v>
       </c>
       <c r="K36" t="n">
-        <v>11.98997046465377</v>
+        <v>549.0422563676814</v>
       </c>
       <c r="L36" t="n">
         <v>16.12199494398476</v>
       </c>
       <c r="M36" t="n">
-        <v>1229.646773424255</v>
+        <v>18.81360767425508</v>
       </c>
       <c r="N36" t="n">
         <v>19.31154788775575</v>
@@ -37405,10 +37405,10 @@
         <v>14.17875802184039</v>
       </c>
       <c r="Q36" t="n">
-        <v>9.478124247040341</v>
+        <v>555.679072360248</v>
       </c>
       <c r="R36" t="n">
-        <v>4.61009919052708</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>91.8552930694817</v>
+        <v>91.85529306948168</v>
       </c>
       <c r="K37" t="n">
         <v>284.7660952807854</v>
@@ -37481,7 +37481,7 @@
         <v>432.7070683647798</v>
       </c>
       <c r="P37" t="n">
-        <v>358.5459031335258</v>
+        <v>358.5459031335254</v>
       </c>
       <c r="Q37" t="n">
         <v>175.1042693212594</v>
@@ -37539,22 +37539,22 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>4.93751717643428</v>
+        <v>4.937517176434277</v>
       </c>
       <c r="J38" t="n">
-        <v>11.7783887093656</v>
+        <v>451.4295881567574</v>
       </c>
       <c r="K38" t="n">
-        <v>17.65275144304293</v>
+        <v>860.4308241280712</v>
       </c>
       <c r="L38" t="n">
-        <v>1107.818956959326</v>
+        <v>1072.916537771883</v>
       </c>
       <c r="M38" t="n">
-        <v>1193.10293325098</v>
+        <v>24.3677461696152</v>
       </c>
       <c r="N38" t="n">
-        <v>103.5537076419464</v>
+        <v>24.76204177833415</v>
       </c>
       <c r="O38" t="n">
         <v>1013.462565165582</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>2.556462181805472</v>
+        <v>28.88340476812628</v>
       </c>
       <c r="J39" t="n">
         <v>334.8518195103205</v>
       </c>
       <c r="K39" t="n">
-        <v>699.5995866973583</v>
+        <v>549.0422563676814</v>
       </c>
       <c r="L39" t="n">
-        <v>16.12199494398465</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M39" t="n">
         <v>18.81360767425508</v>
@@ -37642,10 +37642,10 @@
         <v>14.17875802184039</v>
       </c>
       <c r="Q39" t="n">
-        <v>549.8050261263263</v>
+        <v>555.679072360248</v>
       </c>
       <c r="R39" t="n">
-        <v>4.61009919052708</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>91.85529306948168</v>
+        <v>91.8552930694817</v>
       </c>
       <c r="K40" t="n">
         <v>284.7660952807854</v>
@@ -37718,7 +37718,7 @@
         <v>432.7070683647798</v>
       </c>
       <c r="P40" t="n">
-        <v>358.5459031335258</v>
+        <v>358.5459031335254</v>
       </c>
       <c r="Q40" t="n">
         <v>175.1042693212594</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>4.93751717643428</v>
+        <v>4.937517176434277</v>
       </c>
       <c r="J41" t="n">
         <v>451.4295881567574</v>
@@ -37785,16 +37785,16 @@
         <v>860.4308241280712</v>
       </c>
       <c r="L41" t="n">
-        <v>925.895005583862</v>
+        <v>21.89979912815465</v>
       </c>
       <c r="M41" t="n">
-        <v>24.3677461696152</v>
+        <v>24.36774616961543</v>
       </c>
       <c r="N41" t="n">
-        <v>1161.864045249492</v>
+        <v>1075.778780422062</v>
       </c>
       <c r="O41" t="n">
-        <v>23.38209388244468</v>
+        <v>1013.462565165582</v>
       </c>
       <c r="P41" t="n">
         <v>856.6327174106605</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>2.556462181805472</v>
+        <v>28.88340476812628</v>
       </c>
       <c r="J42" t="n">
         <v>334.8518195103205</v>
       </c>
       <c r="K42" t="n">
-        <v>699.5995866973583</v>
+        <v>11.98997046465377</v>
       </c>
       <c r="L42" t="n">
-        <v>16.12199494398465</v>
+        <v>16.1219949439847</v>
       </c>
       <c r="M42" t="n">
         <v>18.81360767425508</v>
@@ -37873,13 +37873,13 @@
         <v>19.31154788775575</v>
       </c>
       <c r="O42" t="n">
-        <v>17.66629350017865</v>
+        <v>17.66629350017854</v>
       </c>
       <c r="P42" t="n">
-        <v>14.17875802184039</v>
+        <v>551.2310439248682</v>
       </c>
       <c r="Q42" t="n">
-        <v>431.448684616892</v>
+        <v>555.679072360248</v>
       </c>
       <c r="R42" t="n">
         <v>122.9664406999614</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>91.8552930694817</v>
+        <v>91.85529306948168</v>
       </c>
       <c r="K43" t="n">
         <v>284.7660952807854</v>
@@ -37955,7 +37955,7 @@
         <v>432.7070683647798</v>
       </c>
       <c r="P43" t="n">
-        <v>358.5459031335258</v>
+        <v>358.5459031335254</v>
       </c>
       <c r="Q43" t="n">
         <v>175.1042693212594</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>4.93751717643428</v>
+        <v>4.937517176434277</v>
       </c>
       <c r="J44" t="n">
         <v>451.4295881567574</v>
@@ -38025,10 +38025,10 @@
         <v>21.89979912815465</v>
       </c>
       <c r="M44" t="n">
-        <v>1193.10293325098</v>
+        <v>24.36774616961543</v>
       </c>
       <c r="N44" t="n">
-        <v>24.76204177833415</v>
+        <v>1075.778780422062</v>
       </c>
       <c r="O44" t="n">
         <v>1013.462565165582</v>
@@ -38040,7 +38040,7 @@
         <v>567.0051578243374</v>
       </c>
       <c r="R44" t="n">
-        <v>61.86159352905543</v>
+        <v>179.5800419666912</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>2.556462181805472</v>
+        <v>28.88340476812628</v>
       </c>
       <c r="J45" t="n">
-        <v>7.015127625257549</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K45" t="n">
-        <v>11.98997046465379</v>
+        <v>549.0422563676814</v>
       </c>
       <c r="L45" t="n">
-        <v>907.3379153183961</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M45" t="n">
         <v>18.81360767425508</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>91.85529306948169</v>
+        <v>91.8552930694817</v>
       </c>
       <c r="K46" t="n">
         <v>284.7660952807854</v>
@@ -38192,7 +38192,7 @@
         <v>432.7070683647798</v>
       </c>
       <c r="P46" t="n">
-        <v>358.5459031335258</v>
+        <v>358.5459031335254</v>
       </c>
       <c r="Q46" t="n">
         <v>175.1042693212594</v>
